--- a/jacobi/src/test/resources/jacobi/test/data/MutableTableauTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/MutableTableauTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="22995" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="-1320" yWindow="4470" windowWidth="22995" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="constructor" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B39" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -812,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D45" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,921 +1621,921 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*20-5</f>
-        <v>5.0621445753473928</v>
+        <v>3.768133664452531</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:K16" ca="1" si="0">RAND()*20-5</f>
-        <v>8.576897843741742</v>
+        <v>-0.37092365551975881</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>14.122025757225341</v>
+        <v>5.2355623112026972</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0970731211367863</v>
+        <v>3.0850327239222572</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5260672853539368</v>
+        <v>5.5390725854817937</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>11.36696091490284</v>
+        <v>5.4663464786778277</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5942863112385819</v>
+        <v>4.1765174648744221</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>14.011364027617169</v>
+        <v>3.1762209361407372</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9663882389940195</v>
+        <v>-1.4955996460699983</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0440515534918346</v>
+        <v>13.259713091552609</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.3196630723025287</v>
+        <v>-4.785286664106156</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:K20" ca="1" si="1">RAND()*20-5</f>
-        <v>9.8281755201457557</v>
+        <v>11.41811437952579</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.106312849542348</v>
+        <v>7.4147439395429977</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3121969678605048</v>
+        <v>3.8718791630582956</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9856234786804259</v>
+        <v>-3.6616821991033066</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7351651426942301</v>
+        <v>13.247836732054562</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>10.079857527034175</v>
+        <v>9.8462595139018134</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.80852693806556</v>
+        <v>1.7359288606973555</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.72724855849661552</v>
+        <v>12.829613496082796</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57467636280171419</v>
+        <v>3.8806715165091141</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5091758193032119</v>
+        <v>11.403562068750659</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5351187983444814</v>
+        <v>-0.52386960870693056</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2578663491334545</v>
+        <v>-2.6469173497802023</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.9043547909593137</v>
+        <v>7.4630637440347734</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6145278030935568</v>
+        <v>10.299406751872585</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>12.328249932595927</v>
+        <v>-3.0280312666222065</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24842537578708068</v>
+        <v>14.126349560667883</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>12.635338638780752</v>
+        <v>2.8477180640590234</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5635963556213972</v>
+        <v>7.3749187194718218</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2875432928067676</v>
+        <v>10.070066265500817</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.791093251712061</v>
+        <v>-3.648613089049475</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9536850402745074</v>
+        <v>4.5530585600041089</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0198935176011226</v>
+        <v>2.4166787208645051</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5917855053441499</v>
+        <v>-1.7931481227124202</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>13.023376389507533</v>
+        <v>-0.57929931559582748</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9383960695771063</v>
+        <v>5.5448929044029107</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2016808925939202</v>
+        <v>-1.6504261525307973</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5258412998609803</v>
+        <v>9.6237115719077355</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1949405320011266</v>
+        <v>11.319839161476612</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6981366149278205</v>
+        <v>-2.2429230657835308</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6373032659431654</v>
+        <v>9.2073947684329163</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0566418996438269</v>
+        <v>-1.1838744367253295</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.026511219931717</v>
+        <v>13.593302412827747</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7094673891454857</v>
+        <v>12.382535240548894</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8851702141758011</v>
+        <v>4.4820179592358507</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8580159880927081</v>
+        <v>10.294950962249143</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4419792297862042</v>
+        <v>4.3930772561017921</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5409819351345533</v>
+        <v>-1.1337619086323558</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0965956848837521</v>
+        <v>12.387678179682126</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.034345421116889</v>
+        <v>2.545696969497877</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9009199417484091</v>
+        <v>-0.44436652959966949</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7335070002342396</v>
+        <v>-4.7860784079746388</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2851371719672038</v>
+        <v>12.061275998075715</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3981277547675006</v>
+        <v>-4.0621621192880024</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8047942697618535</v>
+        <v>9.7304906402888331</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1344639432846506</v>
+        <v>-2.3842127302641503</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51087695399287547</v>
+        <v>9.9079463998302142</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7058825449889787</v>
+        <v>14.985301463695727</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2844802628871914</v>
+        <v>2.159704379310714</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>12.638108409399248</v>
+        <v>12.596762656845296</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>10.369027443863143</v>
+        <v>-0.64656710571234566</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8607144364304578</v>
+        <v>6.0135511016382974</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>13.878465866079097</v>
+        <v>14.4093415678098</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>12.095492148441267</v>
+        <v>1.8165540438215739</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3002893826112158</v>
+        <v>12.591335175436761</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4724653865304074</v>
+        <v>-3.5375513890240806</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.73397003936917571</v>
+        <v>-1.9178141217586031</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3820267337896297</v>
+        <v>5.3068770730464188</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5964640947091659</v>
+        <v>3.2481041083410123</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4556607449454724</v>
+        <v>11.482988731192666</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1937879403357883</v>
+        <v>-0.69961667274454076</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5728277766262173</v>
+        <v>5.8597550326619885</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>14.941627686445507</v>
+        <v>9.8510284811492248</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3760506054267942</v>
+        <v>0.53826041644096101</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.39174545095225</v>
+        <v>8.4068514826666494</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>11.836982306685865</v>
+        <v>4.2411217647757464</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.20824941777662698</v>
+        <v>4.4441405028887022</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4893088327194697</v>
+        <v>-4.8047650137546078</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5550862491652122</v>
+        <v>8.5785225087005745</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>10.57338978134319</v>
+        <v>2.4138272050421961E-2</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>12.014419900543253</v>
+        <v>6.5228737780438184</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3366956542690187</v>
+        <v>13.060980194848216</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8590859444896193</v>
+        <v>-2.6458445893148919</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>10.88810125257857</v>
+        <v>5.1999417035362541</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.630053543531325</v>
+        <v>9.300725252706787</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7600043673077934</v>
+        <v>2.5126122723062423</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0249507400447797</v>
+        <v>-1.4840317412969606</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>14.55270679511969</v>
+        <v>-1.3848269493676857</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9822610907246871</v>
+        <v>11.243239675146942</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7036871170518744</v>
+        <v>5.8737112940296825</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2377121669346032</v>
+        <v>-3.8358758393296788</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5067295315700768</v>
+        <v>11.785026060491759</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>11.266790119601296</v>
+        <v>3.2386088626676663</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>14.355562470792872</v>
+        <v>-4.2676546637888713</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>14.819000226861203</v>
+        <v>-2.6316337748944063</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.469240505219112</v>
+        <v>6.1867322527528046</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4902372984837342</v>
+        <v>-4.9728917442994369</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>12.375174355055066</v>
+        <v>1.762010545962676</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.5105076387360654E-2</v>
+        <v>2.0745620058505532</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9042065945489135</v>
+        <v>10.643734020788788</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6951423810966553</v>
+        <v>-4.6318139176600415</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4118485679651744</v>
+        <v>7.6655326595311379E-2</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4760566316266317</v>
+        <v>13.824280829566909</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.171964531291902</v>
+        <v>0.2643653867727247</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4719165939212697</v>
+        <v>0.37130219899220052</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4832660965946149</v>
+        <v>9.0449490361372611</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3210895818878026</v>
+        <v>14.092516086578485</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1588104486099855</v>
+        <v>10.476983020312563</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>11.329470777603614</v>
+        <v>14.128575954979794</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7271001991993469</v>
+        <v>5.7038244669083138</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3339560993734043</v>
+        <v>-0.40762381094883438</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6098518073333175</v>
+        <v>12.077987739401394</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.669541046724341</v>
+        <v>1.8802627362422664</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.860830430107355</v>
+        <v>8.4143301957279739</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>11.30094893173262</v>
+        <v>-2.6928736549764132</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8545256237265466</v>
+        <v>8.1834335622637226</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>10.322110651619422</v>
+        <v>12.728004545373189</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8568935422204511</v>
+        <v>1.3635945052031957</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56639035207588506</v>
+        <v>10.947566974483339</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2746933373804463</v>
+        <v>-1.4829976623892183</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5349832409485273</v>
+        <v>4.2042853197465728</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4747876341450872</v>
+        <v>-4.9204383904410021</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1782540948517122</v>
+        <v>1.60764135316896</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.802723139502724</v>
+        <v>-1.40469214408109</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.36436843449859424</v>
+        <v>14.378654754588979</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2219594074760387</v>
+        <v>-2.0511253181843414</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.71128604830702</v>
+        <v>7.2028789663581705</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2802651199610242</v>
+        <v>13.314678987315574</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0727948929574755</v>
+        <v>7.3021619343768851</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2123610260323101</v>
+        <v>12.303444756918147</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.091273865339115</v>
+        <v>10.020877787694369</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8584084356700998</v>
+        <v>3.6861847065979454</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1442029754675502</v>
+        <v>-0.65558553924345553</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6523645087249097</v>
+        <v>3.3561531549243568</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0973889925850511</v>
+        <v>6.6738618681574202</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>12.713923227080748</v>
+        <v>8.2894337150905102</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5838130096442455</v>
+        <v>5.1303307074890387</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.3027387642367483</v>
+        <v>7.9115517770791151</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1673023706861745</v>
+        <v>8.8598156113560389</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4740456127258845</v>
+        <v>8.9438920868407141</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.704905311698734</v>
+        <v>-4.7766674325828484</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56096206888260891</v>
+        <v>13.852405610638709</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2559339198309054</v>
+        <v>14.468076429248757</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>14.836758987651844</v>
+        <v>2.8031167585817478</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3194732071259256</v>
+        <v>-1.9170896100014923</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4405192411044219</v>
+        <v>4.1568072734577761</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3510513107919149</v>
+        <v>8.7072121118125896</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4338118182974924</v>
+        <v>6.5331509406485715</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>13.810640667439642</v>
+        <v>6.7201886557616923</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.899869869154271</v>
+        <v>6.0411698130253448</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>11.977997757791947</v>
+        <v>1.5292206245457551</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0671135509260701</v>
+        <v>2.8773352559950087</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7916423164270667</v>
+        <v>6.7431421096068291</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5782849380064672</v>
+        <v>0.41439127635999551</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.2303578451043813</v>
+        <v>8.6028053119292469</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>13.76945036831604</v>
+        <v>14.060937540912118</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1146972011764653</v>
+        <v>3.5262578217577083</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0387666391550106</v>
+        <v>13.285580360500759</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1049955696125089</v>
+        <v>12.523192063484299</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.369818767492804</v>
+        <v>-4.6355091490068574</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3117938332183101</v>
+        <v>1.2680625687322999</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6443934960154252</v>
+        <v>4.6301732613961271</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8590496348219112</v>
+        <v>-2.9634680063363561</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3574857997805907</v>
+        <v>12.794108404610064</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9390227752743865</v>
+        <v>3.168910279032545</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>10.100079286807604</v>
+        <v>4.9837602957079348</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0298380653368877</v>
+        <v>11.570883729681881</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9118534701771992</v>
+        <v>-2.8203680961610234</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59616892630602258</v>
+        <v>-3.7038201659742476</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1275185512270696</v>
+        <v>8.7539376088573828</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99718597474234727</v>
+        <v>12.351075791731965</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.68544150634723078</v>
+        <v>6.8217206841985103</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.526362010962405</v>
+        <v>-4.5424095784191927</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1472507733662862</v>
+        <v>7.3963458653005336</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>12.777736219997095</v>
+        <v>7.6004463363949544</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4406507236023796</v>
+        <v>9.7368835428084299</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1252203783798755</v>
+        <v>5.0215924503309477</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>14.285768673676976</v>
+        <v>10.611367454644256</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2814521618412407</v>
+        <v>8.7702595300016561</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.76823934899991286</v>
+        <v>3.0295361793587041</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>14.456023166352896</v>
+        <v>9.6276280552443794</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5045845647232579</v>
+        <v>1.8246871317378126</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>11.133522096452332</v>
+        <v>-3.8770802436618501</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7266958582580401</v>
+        <v>-3.3766112579813279</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.390668703276997</v>
+        <v>0.12820925328626487</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.599157753830875</v>
+        <v>13.683145771747746</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5892387761129374</v>
+        <v>-4.4564094969849588</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.1653133133623981</v>
+        <v>6.6601546891869372</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98702402061016326</v>
+        <v>14.506460649252215</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4174945120044313</v>
+        <v>10.922385965712298</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.9101753360786935</v>
+        <v>9.8414156212862096</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4380447505690439</v>
+        <v>-1.2074843773242883</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2952990187048039</v>
+        <v>4.7373808811625118</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7649657286517595</v>
+        <v>0.63285888760823461</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4126006462619145</v>
+        <v>4.608299010673429</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.490242877623674</v>
+        <v>6.1179861265674251</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>10.678628084662389</v>
+        <v>9.5890852116717813</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>11.837045386456765</v>
+        <v>6.6401192147430663</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>13.413212089002474</v>
+        <v>7.2932579226717458</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5372947681317926</v>
+        <v>10.337157749936496</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.834585370596554</v>
+        <v>5.3006364022120067</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>14.940513970353916</v>
+        <v>1.969597832809022</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>10.670528568723377</v>
+        <v>1.2981003517181344</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5469788615065587</v>
+        <v>10.412013622746548</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5854132728622137</v>
+        <v>7.0051165341660777</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.89536986651702222</v>
+        <v>14.179252325656872</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4778092409354482</v>
+        <v>5.1197221987812913</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9272466083625659</v>
+        <v>6.6030500214475651E-2</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8461169033523372</v>
+        <v>1.8401415669204564</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9133316339490403</v>
+        <v>2.9173595275574034</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.560933345464278</v>
+        <v>6.2795552854639958</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>10.496866860078873</v>
+        <v>2.5377738087573887</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>13.968435623371963</v>
+        <v>11.180987918377593</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3058413537434106E-2</v>
+        <v>-4.6164403406466032</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5606283660620939</v>
+        <v>3.0447550097404381</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1820904370480498</v>
+        <v>5.8772305901797637</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8946892618707967</v>
+        <v>11.423133390755307</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>11.636150985730247</v>
+        <v>7.5442108226081555</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12281136111857105</v>
+        <v>13.157645508835103</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5214776545366444</v>
+        <v>10.031544690307106</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/MutableTableauTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/MutableTableauTest.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="constructor" sheetId="1" r:id="rId1"/>
     <sheet name="constructor mixed signs" sheetId="5" r:id="rId2"/>
-    <sheet name="swap 3,2" sheetId="9" r:id="rId3"/>
+    <sheet name="swap 3,3" sheetId="9" r:id="rId3"/>
     <sheet name="rand" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D45" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,11 +1383,11 @@
         <f>-A21</f>
         <v>-1.667089921671332</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="2">
         <f t="shared" ref="C25:E25" si="0">-B21</f>
         <v>-14.207545201002883</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>-13.523130655292022</v>
       </c>
@@ -1406,11 +1406,11 @@
         <f>SIGN($A16)*A10</f>
         <v>3.8890959073057374</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26">
         <f t="shared" ref="C26:E26" si="1">SIGN($A16)*B10</f>
         <v>11.929364716709756</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <f t="shared" si="1"/>
         <v>9.8479452177402464</v>
       </c>
@@ -1437,11 +1437,11 @@
         <f>SIGN($A17)*A11</f>
         <v>-14.18642847921847</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27">
         <f t="shared" ref="C27:E27" si="3">SIGN($A17)*B11</f>
         <v>3.0960542658790136</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <f t="shared" si="3"/>
         <v>1.5066197973488027</v>
       </c>
@@ -1554,19 +1554,20 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40">
+        <f>D40</f>
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <f>D45</f>
         <v>6</v>
       </c>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="D41">
+      <c r="D41" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1596,8 +1597,8 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <f>D40</f>
-        <v>1</v>
+        <f>D41</f>
+        <v>2</v>
       </c>
       <c r="D45" s="5">
         <v>6</v>
@@ -1621,921 +1622,921 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*20-5</f>
-        <v>3.768133664452531</v>
+        <v>10.785406835390802</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:K16" ca="1" si="0">RAND()*20-5</f>
-        <v>-0.37092365551975881</v>
+        <v>14.190949780589733</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2355623112026972</v>
+        <v>-3.346791024048954</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0850327239222572</v>
+        <v>6.2713211955432264</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5390725854817937</v>
+        <v>12.857385484071578</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4663464786778277</v>
+        <v>11.85367283360744</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1765174648744221</v>
+        <v>-4.9329899611679373</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1762209361407372</v>
+        <v>7.4332680115262022</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4955996460699983</v>
+        <v>13.850702842100208</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>13.259713091552609</v>
+        <v>11.636851994438096</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.785286664106156</v>
+        <v>1.0413101604013031</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:K20" ca="1" si="1">RAND()*20-5</f>
-        <v>11.41811437952579</v>
+        <v>5.2870825348285138</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4147439395429977</v>
+        <v>-3.7138968867680799</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8718791630582956</v>
+        <v>6.3557357257012299</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6616821991033066</v>
+        <v>3.5011911650481871</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>13.247836732054562</v>
+        <v>2.7898489084992395</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8462595139018134</v>
+        <v>3.3452382403330176</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7359288606973555</v>
+        <v>2.7712958489024642</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>12.829613496082796</v>
+        <v>4.3918297015586951</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8806715165091141</v>
+        <v>-2.9879639687039794</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>11.403562068750659</v>
+        <v>6.4998585982144483</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.52386960870693056</v>
+        <v>1.0518742705566435</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6469173497802023</v>
+        <v>5.2718390753094191</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4630637440347734</v>
+        <v>4.6260251103548615</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>10.299406751872585</v>
+        <v>13.567772505320207</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0280312666222065</v>
+        <v>-4.8861770469029731</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>14.126349560667883</v>
+        <v>5.035108873336938</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8477180640590234</v>
+        <v>12.320098975352547</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3749187194718218</v>
+        <v>0.75330605036532283</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>10.070066265500817</v>
+        <v>4.9075541915579812</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.648613089049475</v>
+        <v>13.594014416277119</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5530585600041089</v>
+        <v>10.839589523067669</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4166787208645051</v>
+        <v>6.0816506118401126</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7931481227124202</v>
+        <v>14.717315196380664</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.57929931559582748</v>
+        <v>7.8771140931377115</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5448929044029107</v>
+        <v>10.21187975319507</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6504261525307973</v>
+        <v>6.3621986163354549</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6237115719077355</v>
+        <v>4.2846764143597031</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.319839161476612</v>
+        <v>8.8306127178190952</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2429230657835308</v>
+        <v>8.9157515454305063</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2073947684329163</v>
+        <v>4.7751773310567067</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1838744367253295</v>
+        <v>-4.2638026328971996</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>13.593302412827747</v>
+        <v>-0.60187867324552169</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>12.382535240548894</v>
+        <v>-2.6526071324370615</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4820179592358507</v>
+        <v>4.9298454504287559</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>10.294950962249143</v>
+        <v>9.848831701332843</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3930772561017921</v>
+        <v>4.0627289516995901</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1337619086323558</v>
+        <v>0.99548276328646423</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.387678179682126</v>
+        <v>5.0887623218334141</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.545696969497877</v>
+        <v>5.6118932672326398</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.44436652959966949</v>
+        <v>13.411254903372068</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7860784079746388</v>
+        <v>9.8771329130786434</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.061275998075715</v>
+        <v>10.370371545587151</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.0621621192880024</v>
+        <v>10.003485525698913</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7304906402888331</v>
+        <v>-0.44949508098150126</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3842127302641503</v>
+        <v>1.8947672879485555</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9079463998302142</v>
+        <v>-2.5764855432701395</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>14.985301463695727</v>
+        <v>-4.0323894112609571</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.159704379310714</v>
+        <v>2.0969818404991987</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>12.596762656845296</v>
+        <v>9.2865207747558731</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.64656710571234566</v>
+        <v>7.014618390071421</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0135511016382974</v>
+        <v>8.0137467995542231</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>14.4093415678098</v>
+        <v>6.8122063500684433</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8165540438215739</v>
+        <v>3.2983293575868711</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>12.591335175436761</v>
+        <v>-3.4486452218110841</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5375513890240806</v>
+        <v>3.41061149727045</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9178141217586031</v>
+        <v>7.5992217842001626</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3068770730464188</v>
+        <v>0.99137079689544372</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2481041083410123</v>
+        <v>10.311360733246097</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>11.482988731192666</v>
+        <v>-1.5820641767870125</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.69961667274454076</v>
+        <v>4.2976975336563594</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8597550326619885</v>
+        <v>-1.3473470147598965</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8510284811492248</v>
+        <v>9.985288820838349</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53826041644096101</v>
+        <v>8.0942515187537367</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4068514826666494</v>
+        <v>2.0355337761542351</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2411217647757464</v>
+        <v>5.2398670846728361</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4441405028887022</v>
+        <v>-3.2795647462501232</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.8047650137546078</v>
+        <v>5.6712892160548929</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5785225087005745</v>
+        <v>-3.4509446591451787</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4138272050421961E-2</v>
+        <v>10.805716696430558</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5228737780438184</v>
+        <v>13.969792012214242</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>13.060980194848216</v>
+        <v>14.295283161476295</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6458445893148919</v>
+        <v>14.906095000174698</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1999417035362541</v>
+        <v>3.7505242656458098</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.300725252706787</v>
+        <v>0.74268419689502707</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5126122723062423</v>
+        <v>5.1712604235347577</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4840317412969606</v>
+        <v>0.41608323965131078</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3848269493676857</v>
+        <v>13.400426795975996</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>11.243239675146942</v>
+        <v>8.2224025438568571</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8737112940296825</v>
+        <v>-4.6426246389867938</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8358758393296788</v>
+        <v>6.9121613358248091</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>11.785026060491759</v>
+        <v>14.459507027168911</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2386088626676663</v>
+        <v>4.807891268162809</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2676546637888713</v>
+        <v>3.9997530518728404</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6316337748944063</v>
+        <v>3.7950139991877379</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1867322527528046</v>
+        <v>-0.70338631927274076</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9728917442994369</v>
+        <v>3.554474721101176</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.762010545962676</v>
+        <v>4.1946575802002997</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0745620058505532</v>
+        <v>3.8734651911137163</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>10.643734020788788</v>
+        <v>-0.41251875763141044</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6318139176600415</v>
+        <v>9.4075331792790706E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6655326595311379E-2</v>
+        <v>6.9230525451144604</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>13.824280829566909</v>
+        <v>12.155611862522548</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2643653867727247</v>
+        <v>4.8089344842270343</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37130219899220052</v>
+        <v>2.3950198130152938</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0449490361372611</v>
+        <v>13.717391852178544</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>14.092516086578485</v>
+        <v>9.5979440234326567</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>10.476983020312563</v>
+        <v>-0.1126863185176008</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>14.128575954979794</v>
+        <v>2.3816133923868872</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7038244669083138</v>
+        <v>5.1538147693595207</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.40762381094883438</v>
+        <v>12.192398537921253</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.077987739401394</v>
+        <v>12.22195542904818</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8802627362422664</v>
+        <v>7.4543490645526926</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4143301957279739</v>
+        <v>2.4108255386913768</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6928736549764132</v>
+        <v>9.398928788906737</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1834335622637226</v>
+        <v>12.916654223016849</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.728004545373189</v>
+        <v>-4.8905210239502672E-2</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3635945052031957</v>
+        <v>2.0152310124376331</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>10.947566974483339</v>
+        <v>13.87673419195275</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4829976623892183</v>
+        <v>9.0912599497993813</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2042853197465728</v>
+        <v>8.7222251200301297</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.9204383904410021</v>
+        <v>14.724262544970074</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.60764135316896</v>
+        <v>-0.27298641249540445</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.40469214408109</v>
+        <v>10.448160447470858</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>14.378654754588979</v>
+        <v>9.4558946980955731</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0511253181843414</v>
+        <v>12.191870888721738</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2028789663581705</v>
+        <v>14.258909347424122</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>13.314678987315574</v>
+        <v>10.073786923634216</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3021619343768851</v>
+        <v>10.228630359060469</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.303444756918147</v>
+        <v>5.1894899350364181</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.020877787694369</v>
+        <v>5.1384506275751711</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6861847065979454</v>
+        <v>8.3408860877651385</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.65558553924345553</v>
+        <v>2.8290901078546193</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3561531549243568</v>
+        <v>-3.25664190576479</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6738618681574202</v>
+        <v>-4.9717996129427551</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2894337150905102</v>
+        <v>5.32060206863164</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1303307074890387</v>
+        <v>-3.6424343012374738</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9115517770791151</v>
+        <v>13.254864475662689</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8598156113560389</v>
+        <v>1.2333399977286224</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9438920868407141</v>
+        <v>10.880651398894903</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7766674325828484</v>
+        <v>12.260808576257315</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>13.852405610638709</v>
+        <v>8.1993400903119351</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>14.468076429248757</v>
+        <v>-1.3908147871023657</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8031167585817478</v>
+        <v>2.5129024146016281</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9170896100014923</v>
+        <v>13.395983290363468</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1568072734577761</v>
+        <v>5.6583187175335006</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7072121118125896</v>
+        <v>-0.27564412391997806</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5331509406485715</v>
+        <v>-0.2734936370801444</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7201886557616923</v>
+        <v>8.52358679333636</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0411698130253448</v>
+        <v>12.002426965148889</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5292206245457551</v>
+        <v>3.6643484174955177</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8773352559950087</v>
+        <v>-1.9399112680715347</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7431421096068291</v>
+        <v>13.799092769863229</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41439127635999551</v>
+        <v>2.6415467916691231</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6028053119292469</v>
+        <v>-2.9294318732056523</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>14.060937540912118</v>
+        <v>10.413524000174107</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5262578217577083</v>
+        <v>-0.20583287279988305</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>13.285580360500759</v>
+        <v>2.1065564412163118</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>12.523192063484299</v>
+        <v>-2.9838432297176287</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6355091490068574</v>
+        <v>9.9641471442927632</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2680625687322999</v>
+        <v>3.8037188357080041</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6301732613961271</v>
+        <v>3.3016863045656546</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9634680063363561</v>
+        <v>9.8843323825331648</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>12.794108404610064</v>
+        <v>13.939033651893805</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.168910279032545</v>
+        <v>9.6415223410402753</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9837602957079348</v>
+        <v>12.033810443272731</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>11.570883729681881</v>
+        <v>11.688280105104447</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8203680961610234</v>
+        <v>2.0373548512059569</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7038201659742476</v>
+        <v>3.5759374975647891</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7539376088573828</v>
+        <v>-3.405116338014067</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>12.351075791731965</v>
+        <v>-2.9209445982156024</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8217206841985103</v>
+        <v>0.91272499116647587</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5424095784191927</v>
+        <v>-1.2529888516710042</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3963458653005336</v>
+        <v>2.0415438716680434</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6004463363949544</v>
+        <v>8.6554040606018052</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7368835428084299</v>
+        <v>12.196476597042604</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0215924503309477</v>
+        <v>3.5820630281669921</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.611367454644256</v>
+        <v>10.067640841373194</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7702595300016561</v>
+        <v>11.234987373098534</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0295361793587041</v>
+        <v>13.806999925245236</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6276280552443794</v>
+        <v>14.44712025675107</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8246871317378126</v>
+        <v>4.0919078792165138</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8770802436618501</v>
+        <v>8.5687827651926334</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3766112579813279</v>
+        <v>-3.1355380129779276</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12820925328626487</v>
+        <v>8.9765975446961406</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>13.683145771747746</v>
+        <v>2.8882656393034996</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4564094969849588</v>
+        <v>8.2825358033094005</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6601546891869372</v>
+        <v>-1.9728665374540433</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>14.506460649252215</v>
+        <v>6.1341382469063248</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>10.922385965712298</v>
+        <v>-4.7606393921654533</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8414156212862096</v>
+        <v>-0.23230570810430784</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2074843773242883</v>
+        <v>2.7670013720367344</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7373808811625118</v>
+        <v>6.4897646491729404</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63285888760823461</v>
+        <v>4.7667771055491741</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.608299010673429</v>
+        <v>4.8188679284154716</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1179861265674251</v>
+        <v>12.220105746348644</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5890852116717813</v>
+        <v>-2.5669468167614928</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6401192147430663</v>
+        <v>10.841284780082789</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2932579226717458</v>
+        <v>8.308820301694503</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>10.337157749936496</v>
+        <v>-4.2667682356419778</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3006364022120067</v>
+        <v>2.2456201893917882</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.969597832809022</v>
+        <v>-3.5308204448558289</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2981003517181344</v>
+        <v>3.4146921982682716</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>10.412013622746548</v>
+        <v>-3.9163610608845345</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0051165341660777</v>
+        <v>8.8990264846339979</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>14.179252325656872</v>
+        <v>1.1075218761874872</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1197221987812913</v>
+        <v>4.8533645285844518</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6030500214475651E-2</v>
+        <v>11.831605775152493</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8401415669204564</v>
+        <v>0.82677774698923123</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9173595275574034</v>
+        <v>0.17085082175878163</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2795552854639958</v>
+        <v>8.6293660841571569</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5377738087573887</v>
+        <v>7.5109568627840932</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>11.180987918377593</v>
+        <v>8.7346706973540194</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.6164403406466032</v>
+        <v>13.486936215951115</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0447550097404381</v>
+        <v>7.8254961739520361</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8772305901797637</v>
+        <v>12.274872156159017</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>11.423133390755307</v>
+        <v>-0.79365825220867325</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5442108226081555</v>
+        <v>0.48539822225186047</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>13.157645508835103</v>
+        <v>8.4452060157604087</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>10.031544690307106</v>
+        <v>13.053677371054768</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/MutableTableauTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/MutableTableauTest.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="construct 3x5" sheetId="1" r:id="rId1"/>
     <sheet name="construct aux 4x6" sheetId="2" r:id="rId2"/>
     <sheet name="swap 2,3" sheetId="4" r:id="rId3"/>
-    <sheet name="swap aux 5,0" sheetId="5" r:id="rId4"/>
+    <sheet name="swap aux 0,5" sheetId="5" r:id="rId4"/>
     <sheet name="swap aux 3,9 1,3" sheetId="6" r:id="rId5"/>
     <sheet name="rand" sheetId="3" r:id="rId6"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>#0</t>
   </si>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H30" sqref="A29:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,10 +868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:H29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,6 +1253,57 @@
       </c>
       <c r="H31" s="6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+      <c r="J35">
+        <v>9</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1754,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,7 +2702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
@@ -3306,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:J46" si="16">B42</f>
+        <f t="shared" ref="B46:H46" si="16">B42</f>
         <v>1</v>
       </c>
       <c r="C46">
@@ -3733,1251 +3784,1251 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*20-7</f>
-        <v>-6.2160798163761726</v>
+        <v>9.4974891305704396</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:L16" ca="1" si="0">RAND()*20-7</f>
-        <v>-2.7515430970568815</v>
+        <v>12.508023831331521</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8412978612548443</v>
+        <v>-1.0184303246218462</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.778595704795912</v>
+        <v>-4.1392257660054508</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.671538874940484</v>
+        <v>7.8392954820175547</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8498799556440808</v>
+        <v>-6.2262093511807475</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.30043481110808123</v>
+        <v>2.0195308020009684</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.2169174774565432</v>
+        <v>-4.8091367174940167</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7353550594659639</v>
+        <v>5.757642434550986</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3981975894809366</v>
+        <v>-0.66026633526639333</v>
       </c>
       <c r="K1">
         <f ca="1">RAND()*20-7</f>
-        <v>1.560991933509424</v>
+        <v>2.816958269532055</v>
       </c>
       <c r="L1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2837233872999505</v>
+        <v>2.6230764641563518</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:L25" ca="1" si="1">RAND()*20-7</f>
-        <v>10.202303718767247</v>
+        <v>5.7388734042680323</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.397463804062113</v>
+        <v>-1.2452206210200316</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8524731806546999</v>
+        <v>-6.3002180592872215</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>12.972390829925743</v>
+        <v>-4.268416699456659</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6108823276922113</v>
+        <v>1.9849318416415116</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5757659112709099</v>
+        <v>12.063763112077822</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1832245910740582</v>
+        <v>6.039472002965411</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.090551987772832</v>
+        <v>-5.2735274080289063</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6599590882920054</v>
+        <v>6.2441483027328992</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6783539148926714</v>
+        <v>4.7233308035698904</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1546410142939614</v>
+        <v>5.7781612946073722</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.9876785913763921</v>
+        <v>3.0603683463057365</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.5405321869682957</v>
+        <v>4.135019216937641</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.3004118712888264</v>
+        <v>-5.9807303909008969</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>10.283206100520012</v>
+        <v>1.8289521238051343</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2295987781094766</v>
+        <v>-4.5367386081397969</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3229756102028354</v>
+        <v>12.704973872432905</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10219897568136105</v>
+        <v>0.30141031722320033</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9897055960918841</v>
+        <v>12.817562601188442</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>11.429080436060115</v>
+        <v>2.9845770722839831</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5406798840768907</v>
+        <v>-6.6551317255862923</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1226241759603255</v>
+        <v>-2.7669158004158056</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2822884763212379</v>
+        <v>0.23721453405956794</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9444667287342199</v>
+        <v>4.3104828722128854</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0975560304762393</v>
+        <v>3.6999294970864689</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7029798566128083</v>
+        <v>6.8742180748029824</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.204927125210947</v>
+        <v>7.0389563233189385</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0181701147190769</v>
+        <v>5.1280016712675405</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2079356347735484</v>
+        <v>1.0437891437225328</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2399586626661101</v>
+        <v>10.009354082799256</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.01878943171128</v>
+        <v>2.9375068630819268</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1650466969063995</v>
+        <v>-3.9512294314826883</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8739713809509553</v>
+        <v>6.6965988632651445</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5467649443004179</v>
+        <v>-4.7525324969243297</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3831957958730214</v>
+        <v>4.8650794497385252</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4153056384472755</v>
+        <v>3.4553271425891197</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.3522438262928675</v>
+        <v>5.7925956514599442</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>10.044753165329855</v>
+        <v>1.0906168061323527</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1461020828333801</v>
+        <v>4.6242703686709916</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4666771427612186</v>
+        <v>3.5549799330636258</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0343882834429046</v>
+        <v>-3.3551515354382593</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2993377018449124</v>
+        <v>0.52998793473525119</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0785760547749952</v>
+        <v>-2.4869464048435717</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5356933441546534</v>
+        <v>8.3726343379945298</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1800835217731276</v>
+        <v>-6.7032326667125179</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3414797158770639</v>
+        <v>11.915003475334661</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.241466800724039</v>
+        <v>5.9629248508514578</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.587650864073051</v>
+        <v>4.052673878690003</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6847451366919231E-2</v>
+        <v>-0.84317774834864068</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4190246652907246</v>
+        <v>0.40611291360393498</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2854561743607462</v>
+        <v>2.9896082404745847</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9253697289801934</v>
+        <v>-0.48988270476650264</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.969997396154227</v>
+        <v>7.0585117326560862</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0196696509447527</v>
+        <v>-2.2061128151658558</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>12.095108869235801</v>
+        <v>7.8718844335323208</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8667117380467975</v>
+        <v>11.66677237091308</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8595338559671042</v>
+        <v>-1.6597677534553839</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4601588143934539</v>
+        <v>-4.4484372087835542</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9281302451113493</v>
+        <v>6.9014738163538283</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0204047140252186</v>
+        <v>4.2408416756258731</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>11.427946913911978</v>
+        <v>12.716185744913993</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7015131583362688</v>
+        <v>10.933622899608782</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1679675712727313</v>
+        <v>0.10605138488470178</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9385735126923418</v>
+        <v>-0.28527925439894908</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4408497800549505</v>
+        <v>-2.3563423701513768</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.196796670696155</v>
+        <v>7.5034356861578413</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7745473953781143</v>
+        <v>-6.0540855890727601</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5478735639894374</v>
+        <v>1.1958081275634687</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.049654227959909</v>
+        <v>-6.1759168823611281</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6075748524703819</v>
+        <v>-4.0920074622681124</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.286250270675538</v>
+        <v>12.786562682810715</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53226073887305336</v>
+        <v>-2.9972464444636531</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3534891794476493</v>
+        <v>-0.88865146589083821</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1822659981833255</v>
+        <v>3.2897821114633956</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.1378380646967088</v>
+        <v>-3.3756293449231149</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4801344645146521</v>
+        <v>-4.8875534209721891</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>12.139602829872537</v>
+        <v>3.5412745438838584</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9727994502165362</v>
+        <v>9.5762974465647588</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>12.256181118699615</v>
+        <v>2.5381856010362149</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>10.450055099708376</v>
+        <v>12.617537615985732</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.26604301708649025</v>
+        <v>3.5527238577435014</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2261319862676423</v>
+        <v>11.982508314601169</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7810900523999482</v>
+        <v>2.9221870836725685</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7780639678064318</v>
+        <v>12.463852784939363</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6437036896110477</v>
+        <v>6.2678186461966732</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3524456368595335</v>
+        <v>5.46723881547757</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2489054657482797</v>
+        <v>12.741881179441609</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7999149535058709</v>
+        <v>1.035703605450788</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.91327012225495</v>
+        <v>-1.8340839950245629</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7334376493855981</v>
+        <v>10.345060458270076</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>10.340740958956992</v>
+        <v>4.1662996129609216</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6529473947314646</v>
+        <v>9.4218588399694312</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9385687475308275</v>
+        <v>12.71198667918728</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3962554952069137</v>
+        <v>2.0851589604368215</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>11.036887041508137</v>
+        <v>2.3954913153108865</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.196778339910419</v>
+        <v>8.4080210892046807</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2157903386870679</v>
+        <v>5.8995770622458146</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>12.951237436359289</v>
+        <v>9.9591984925874186</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7955991389888837</v>
+        <v>5.6290956235287606</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9642911087586459</v>
+        <v>0.63424545289074441</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>12.276816842994837</v>
+        <v>4.7314314114448788</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.769851650584501</v>
+        <v>-1.7682336186269758</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5116678627508202</v>
+        <v>-3.9696568463720432</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28703876374484594</v>
+        <v>8.7479843654672784</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.3194874084313533</v>
+        <v>12.561225201914375</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0942081600995461</v>
+        <v>-4.8214973304061601</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5175864815923568</v>
+        <v>3.5490924909503754</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6318778216870129</v>
+        <v>-5.9128782931142947</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0875526724084317</v>
+        <v>-2.1149501669265867</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.30099342543577912</v>
+        <v>6.6841302885302785</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8282117697207045</v>
+        <v>12.041938945309127</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.67540522916158</v>
+        <v>11.61207697758157</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6756352532694336</v>
+        <v>3.4397387712756551</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5963206074586083</v>
+        <v>-1.0810636522553363</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1563469117150511</v>
+        <v>1.986403087655388</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5448233368996078</v>
+        <v>11.233619574580484</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8143327375939791</v>
+        <v>0.6422274158864445</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0414530677665113</v>
+        <v>6.7453858230707997</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82147632136859006</v>
+        <v>-5.2139829923237322</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5084558998924735</v>
+        <v>8.3078455490330949</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1402970594688053</v>
+        <v>-2.541398244487981</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4893988538257688</v>
+        <v>-5.375008942583646</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2227588020821241</v>
+        <v>8.5674835320689571</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7952992996925907</v>
+        <v>8.403481805424569</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.198092166513888</v>
+        <v>4.400215603334253</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.3855927446294949</v>
+        <v>8.5518619735911283</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1250036021529475</v>
+        <v>8.8701729253656705</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6432568307727768</v>
+        <v>-4.1110047558794909</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.354413183505319</v>
+        <v>0.80191461397468267</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.770753246118709</v>
+        <v>4.5705808727796562</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6440619671034824</v>
+        <v>-5.0557848140837862</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2235192770557788</v>
+        <v>1.9491213656519886</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2304507973936101</v>
+        <v>8.6709032498394585</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8904702344336162</v>
+        <v>-1.0019989624895942</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>12.575279877295877</v>
+        <v>7.8122021670420896</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9331863294618499</v>
+        <v>1.4132048554611387</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7738500489895621</v>
+        <v>5.1235994052703653</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4191077360837774</v>
+        <v>1.1740660644592005</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6221762472079835</v>
+        <v>8.8368792295081366</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.0571126779940272E-2</v>
+        <v>9.7820874153396034</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7779906161363277</v>
+        <v>11.341170570847048</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.96174748446747493</v>
+        <v>-5.1795118970760132</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.7186216092114144</v>
+        <v>-3.2209220315355451</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.9494251907568776</v>
+        <v>6.2308371711746844</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16804866572717536</v>
+        <v>0.84224060110897181</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>12.487637710930105</v>
+        <v>11.242871984624387</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8065130324746157</v>
+        <v>1.5223419745176638</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6629399610832376</v>
+        <v>2.685535023447569</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.3847463412471521</v>
+        <v>-4.2686529374954372</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8327086681268447</v>
+        <v>3.2577872108640484</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.077370709025967</v>
+        <v>2.009427147946699</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24658059188763737</v>
+        <v>12.884636609096066</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.097199846990792</v>
+        <v>4.7642999707202023</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1747548740520362</v>
+        <v>10.112061376349345</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7105045261400953</v>
+        <v>3.9131535034916105</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4439635536789162</v>
+        <v>9.3985269793221526E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>2.908497565584808</v>
+        <v>12.7749848623939</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2491090560538609</v>
+        <v>-2.2162730378639033</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8214172186603097</v>
+        <v>-6.8269081142997461</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5262626569218476</v>
+        <v>5.8260507891354294</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8437878083222525</v>
+        <v>5.8604315813162113</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.68124731951337214</v>
+        <v>11.613396288621097</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9221086035213752</v>
+        <v>2.1244000888190655</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>12.381316996027639</v>
+        <v>-5.0796213645515031</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9383765757255054</v>
+        <v>6.4815380443589721</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72953617100484003</v>
+        <v>11.393029743484814</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0195720417563727</v>
+        <v>5.8800590607560661</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1282731141137177</v>
+        <v>-2.4171511590807686</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3139282919199733</v>
+        <v>-3.0801692720179634</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7825669984715304</v>
+        <v>12.65854410625197</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1804930082279057</v>
+        <v>8.6312976919941455</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.118231645064288</v>
+        <v>6.3330692276408964</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6815391591075999</v>
+        <v>-2.5906683373170214</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>12.712638445789207</v>
+        <v>-4.8164402639445552</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>11.903116154669952</v>
+        <v>-2.9773446575184348</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8104594268806711</v>
+        <v>1.5190904414607154</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3819968909487343</v>
+        <v>-3.5378942345936442</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5377159258169004</v>
+        <v>2.1127107042492881</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4995820377829254</v>
+        <v>10.812861244529348</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6241886124691902</v>
+        <v>10.263807297766068</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.6956180235445002</v>
+        <v>11.155015769042731</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>11.545231793764373</v>
+        <v>0.65134102764616131</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1915862934861323</v>
+        <v>4.1002483793499724</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4217001283161439</v>
+        <v>11.209867624574144</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.9468844609710407</v>
+        <v>0.10520984716650261</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6498285897770799</v>
+        <v>6.4824288217632642E-2</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8162647034547987</v>
+        <v>8.9712313688806677</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1644488930067567</v>
+        <v>4.6629259205322313</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7586978718890522</v>
+        <v>4.852159884079164</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>11.906599202259621</v>
+        <v>1.2832284530832894</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.508583841513484</v>
+        <v>0.30081362264334732</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>7.836292974448213</v>
+        <v>10.203378921314211</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3617513202931981</v>
+        <v>8.7392553388377561</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>12.676174782580127</v>
+        <v>-3.7906064620048423</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7303548718059112E-2</v>
+        <v>3.4809738487742763</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5548109997138386</v>
+        <v>9.745750455543579</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8226741878587553</v>
+        <v>-4.1873752146640246</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8422924626013959</v>
+        <v>-4.0752397584913158</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5687697789248194</v>
+        <v>2.8956824570075383</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.8277806288893377</v>
+        <v>-4.6802806523009775</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3401054918529862</v>
+        <v>12.529363627469547</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.43367773587411662</v>
+        <v>9.2946982978796129</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.658615535006188</v>
+        <v>2.0484662876118911</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35557172055842656</v>
+        <v>-4.4206276405768445</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2683273320300614</v>
+        <v>4.2791360658784434</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6051823695814154</v>
+        <v>12.804857311408345</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.7558768481768681</v>
+        <v>0.21055297440837784</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3103631615955464</v>
+        <v>11.334037713101555</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9636316867611932</v>
+        <v>-5.8517952136519167</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.9483321635558521</v>
+        <v>-4.6315922354213424</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>10.32304053051007</v>
+        <v>2.0383976127753094</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9387524967331569</v>
+        <v>3.8357815276578009</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0648541454921023</v>
+        <v>9.3035851175501065</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2953401883585993</v>
+        <v>2.5268850819393229</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0175177926304713</v>
+        <v>9.0209675883335052</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5208921497118268</v>
+        <v>3.3808463391950099</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>11.651298343762313</v>
+        <v>8.8411584298167973</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.4034514798421704</v>
+        <v>12.851650741027658</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0177777410878299</v>
+        <v>-2.6501824359627806</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6474697151295317</v>
+        <v>-5.1620745299452242</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1577427871722179</v>
+        <v>8.1507388814013684</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4297367135795334</v>
+        <v>1.7506862474078346</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.85571390878776832</v>
+        <v>6.0807226982376879</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2811947531115813</v>
+        <v>4.464204729882832</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.3898916904193541</v>
+        <v>11.62700527211376</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.56078991199550554</v>
+        <v>-5.9394369193387231</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6555113464060831</v>
+        <v>1.7507160754535889</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="1"/>
-        <v>12.064249009771942</v>
+        <v>8.8042765020169753</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.0754953614999496</v>
+        <v>-6.6759604653676901</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9372942706528793</v>
+        <v>-4.7863840421265813</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>10.241133502161922</v>
+        <v>5.6190187094038038</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2383475809046223</v>
+        <v>10.11906619516434</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5418281846256363</v>
+        <v>7.1986283568548011</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>10.073997667666575</v>
+        <v>-0.2401489114899924</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>11.464203316856295</v>
+        <v>11.942924823673611</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2209845946474633</v>
+        <v>10.29853956543095</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6883941843684429</v>
+        <v>12.629829919024793</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0138960649397379</v>
+        <v>-2.5437389152357568</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.721778999356129</v>
+        <v>-0.98734671605045943</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3894334648121678</v>
+        <v>11.766452008241483</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5778300362310258</v>
+        <v>1.637440234541117</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7962649924357308</v>
+        <v>-2.6298932494201193</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.71792532498924899</v>
+        <v>2.9685381470515324</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8325823256177323</v>
+        <v>4.6997650627760859</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>8.601013251609837</v>
+        <v>-4.5408166722956</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7960218256380713</v>
+        <v>2.2143562215482504</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7977535750009963</v>
+        <v>-4.7784053055605762</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.4345093977615182</v>
+        <v>10.351392631685176</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9101057584870116</v>
+        <v>7.0442103470227515</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6228836855202786</v>
+        <v>-0.90160433773718829</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8560091649831101</v>
+        <v>2.5582436906377399</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3224641030479702</v>
+        <v>-2.3046270744437329</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8895772051798936</v>
+        <v>-4.8526326896640324</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3597823706789161</v>
+        <v>11.75805633266576</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4427702946242018</v>
+        <v>-5.4027883272614741</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.5052212153620399</v>
+        <v>-0.14900664434694555</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.48054040655205732</v>
+        <v>3.7930392121173782</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6123763191646461</v>
+        <v>4.6995266608838566</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3960267029800955</v>
+        <v>6.7150415088227824</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.659259865898906</v>
+        <v>-0.72565714598701359</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.2206835556049356</v>
+        <v>7.2224794965458621</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9249836202454986</v>
+        <v>11.12013434658045</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1566359681712051</v>
+        <v>-3.2516881374304445</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7406857238951545</v>
+        <v>-0.98519171745570233</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5593499667412107</v>
+        <v>-2.7367317899071502</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>10.973344870936948</v>
+        <v>11.687339604783759</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2461689252093713</v>
+        <v>10.588562768759665</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3927579973151367</v>
+        <v>-6.8056749596439818</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>11.855174508605515</v>
+        <v>-0.33035942656805251</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2145376346921903</v>
+        <v>6.97651436910024</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97223406907809906</v>
+        <v>5.9797499335403792</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8537404324988955</v>
+        <v>11.226337498910262</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1048692332469265</v>
+        <v>-5.4043854543126217</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8320641571361573</v>
+        <v>0.97126726714625988</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>7.103594237047691</v>
+        <v>7.2979211129824044</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7336230176646295</v>
+        <v>8.4935939133387244</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0782707547875923</v>
+        <v>-0.77471663994238593</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>3.402972210807512</v>
+        <v>5.8330072559913777</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3704356534596425</v>
+        <v>-3.4179972799229601</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8244822996211107</v>
+        <v>-1.061805515874843</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70998194785560642</v>
+        <v>3.58064670776821</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.1099786095656707</v>
+        <v>10.586477849920463</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32398865551405898</v>
+        <v>-5.5809420556921108</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>10.055661395445597</v>
+        <v>10.44079654375621</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6463088837430533</v>
+        <v>8.6398819028502025</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2553923905140962</v>
+        <v>8.1037086471474407</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6189901580699111</v>
+        <v>-1.765690141660059</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2042067006415245</v>
+        <v>12.850999686381329</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/MutableTableauTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/MutableTableauTest.xlsx
@@ -10,7 +10,7 @@
     <sheet name="construct 3x5" sheetId="1" r:id="rId1"/>
     <sheet name="construct aux 4x6" sheetId="2" r:id="rId2"/>
     <sheet name="swap 2,3" sheetId="4" r:id="rId3"/>
-    <sheet name="swap aux 0,5" sheetId="5" r:id="rId4"/>
+    <sheet name="swap aux 3,8" sheetId="5" r:id="rId4"/>
     <sheet name="swap aux 3,9 1,3" sheetId="6" r:id="rId5"/>
     <sheet name="rand" sheetId="3" r:id="rId6"/>
   </sheets>
@@ -225,7 +225,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -238,9 +238,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -253,6 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
@@ -582,27 +580,27 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="13">
         <v>2.5314051618820184</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="13">
         <v>-1.1995971699596168</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="13">
         <v>5.8972632706780033</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="13">
         <v>-4.3915821001323367</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="13">
         <v>-5.7912691038789585</v>
       </c>
     </row>
@@ -623,53 +621,53 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="15">
         <v>1.4357256328989827</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="15">
         <v>7.7399344975794815</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="15">
         <v>1.0343720232392446</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <v>7.9521707162164841</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="15">
         <v>-5.2581166018012553</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="15">
         <v>8.1941742195425338</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <v>-3.2196165883743748</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="15">
         <v>8.7965783486143625</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <v>-6.8749014189124207</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>3.5300122571595125</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="15">
         <v>1.230632335287174</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="15">
         <v>11.625810670445514</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="15">
         <v>5.6439895945958938</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>-2.5307210525324813</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <v>9.7364836031295496</v>
       </c>
     </row>
@@ -690,17 +688,17 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="16">
         <v>-0.16804680555743623</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="16">
         <v>6.3047060247346653</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="16">
         <v>7.0732730795460732</v>
       </c>
     </row>
@@ -721,98 +719,98 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="15">
         <f>A11</f>
         <v>1.4357256328989827</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="15">
         <f t="shared" ref="B23:E23" si="0">B11</f>
         <v>7.7399344975794815</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="15">
         <f t="shared" si="0"/>
         <v>1.0343720232392446</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="15">
         <f t="shared" si="0"/>
         <v>7.9521707162164841</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>-5.2581166018012553</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="17">
         <f>A17</f>
         <v>-0.16804680555743623</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="15">
         <f t="shared" ref="A24:E24" si="1">A12</f>
         <v>8.1941742195425338</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="15">
         <f t="shared" si="1"/>
         <v>-3.2196165883743748</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="15">
         <f t="shared" si="1"/>
         <v>8.7965783486143625</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="15">
         <f t="shared" si="1"/>
         <v>-6.8749014189124207</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="15">
         <f t="shared" si="1"/>
         <v>3.5300122571595125</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="17">
         <f t="shared" ref="F24:F25" si="2">A18</f>
         <v>6.3047060247346653</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="15">
         <f t="shared" ref="A25:E25" si="3">A13</f>
         <v>1.230632335287174</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="15">
         <f t="shared" si="3"/>
         <v>11.625810670445514</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="15">
         <f t="shared" si="3"/>
         <v>5.6439895945958938</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="15">
         <f t="shared" si="3"/>
         <v>-2.5307210525324813</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="15">
         <f t="shared" si="3"/>
         <v>9.7364836031295496</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="17">
         <f t="shared" si="2"/>
         <v>7.0732730795460732</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="14">
         <f t="array" ref="A26:E26">TRANSPOSE(A3:A7)</f>
         <v>2.5314051618820184</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="14">
         <v>-1.1995971699596168</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="14">
         <v>5.8972632706780033</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="14">
         <v>-4.3915821001323367</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="14">
         <v>-5.7912691038789585</v>
       </c>
       <c r="F26" s="3">
@@ -893,32 +891,32 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="12">
         <v>4.5936408097701467</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="12">
         <v>-6.2629491755739419</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="12">
         <v>3.8740431282132164</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="12">
         <v>12.827015585480698</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="12">
         <v>-0.51980163556408421</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="12">
         <v>-4.6052398743878635</v>
       </c>
     </row>
@@ -939,82 +937,82 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="15">
         <v>7.2289867897746269</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <v>-4.0936845811174472</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="15">
         <v>7.3071899241565799</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <v>-3.3593490308020484</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>-5.240038685450406</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="15">
         <v>1.9266305235128858</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="15">
         <v>2.6175589032484403</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="15">
         <v>1.6197090637320812</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="15">
         <v>-4.4430048421301258</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>-1.9111193775002953</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <v>-4.7081926204244162</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="15">
         <v>-4.8289012403285296</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="15">
         <v>5.7847539776906451</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="15">
         <v>9.3398860726280617</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="15">
         <v>0.35192832533401841</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>10.842368382237353</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>8.3844718634283506</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="15">
         <v>12.114013368602624</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="15">
         <v>12.370663085119055</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="15">
         <v>11.26354093961741</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="15">
         <v>-6.3341266363967268</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>-2.2868394749191516</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="15">
         <v>4.6432998267459347</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="15">
         <v>11.362750535986446</v>
       </c>
     </row>
@@ -1035,22 +1033,22 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="19">
         <v>-6.7815562427389917</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="19">
         <v>-6.9218739615131675</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="19">
         <v>12.814761318814554</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="19">
         <v>-3.8817597125909113</v>
       </c>
     </row>
@@ -1071,155 +1069,155 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="15">
         <f>A12</f>
         <v>7.2289867897746269</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="15">
         <f t="shared" ref="B26:F26" si="0">B12</f>
         <v>-4.0936845811174472</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="15">
         <f t="shared" si="0"/>
         <v>7.3071899241565799</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="15">
         <f t="shared" si="0"/>
         <v>-3.3593490308020484</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>-5.240038685450406</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="15">
         <f t="shared" si="0"/>
         <v>1.9266305235128858</v>
       </c>
       <c r="G26" s="5">
         <v>-1</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="20">
         <f>A19</f>
         <v>-6.7815562427389917</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="15">
         <f t="shared" ref="A27:F27" si="1">A13</f>
         <v>2.6175589032484403</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="15">
         <f t="shared" si="1"/>
         <v>1.6197090637320812</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="15">
         <f t="shared" si="1"/>
         <v>-4.4430048421301258</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="15">
         <f t="shared" si="1"/>
         <v>-1.9111193775002953</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="15">
         <f t="shared" si="1"/>
         <v>-4.7081926204244162</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="15">
         <f t="shared" si="1"/>
         <v>-4.8289012403285296</v>
       </c>
       <c r="G27" s="5">
         <v>-1</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="20">
         <f t="shared" ref="H27:H29" si="2">A20</f>
         <v>-6.9218739615131675</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="15">
         <f t="shared" ref="A28:F28" si="3">A14</f>
         <v>5.7847539776906451</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="15">
         <f t="shared" si="3"/>
         <v>9.3398860726280617</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="15">
         <f t="shared" si="3"/>
         <v>0.35192832533401841</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="15">
         <f t="shared" si="3"/>
         <v>10.842368382237353</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="15">
         <f t="shared" si="3"/>
         <v>8.3844718634283506</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="15">
         <f t="shared" si="3"/>
         <v>12.114013368602624</v>
       </c>
       <c r="G28" s="5">
         <v>-1</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="20">
         <f t="shared" si="2"/>
         <v>12.814761318814554</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="15">
         <f t="shared" ref="A29:F29" si="4">A15</f>
         <v>12.370663085119055</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="15">
         <f t="shared" si="4"/>
         <v>11.26354093961741</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="15">
         <f t="shared" si="4"/>
         <v>-6.3341266363967268</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="15">
         <f t="shared" si="4"/>
         <v>-2.2868394749191516</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="15">
         <f t="shared" si="4"/>
         <v>4.6432998267459347</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="15">
         <f t="shared" si="4"/>
         <v>11.362750535986446</v>
       </c>
       <c r="G29" s="5">
         <v>-1</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="20">
         <f t="shared" si="2"/>
         <v>-3.8817597125909113</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+      <c r="A30" s="18">
         <f t="array" ref="A30:F30">TRANSPOSE(A3:A8)</f>
         <v>4.5936408097701467</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="18">
         <v>-6.2629491755739419</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="18">
         <v>3.8740431282132164</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="18">
         <v>12.827015585480698</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="18">
         <v>-0.51980163556408421</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="18">
         <v>-4.6052398743878635</v>
       </c>
       <c r="G30" s="6">
@@ -1805,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,7 +2026,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28">
         <f>A14</f>
         <v>-1.225725546580561</v>
       </c>
@@ -2060,7 +2058,7 @@
         <f t="shared" si="0"/>
         <v>11.996296127843955</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="5">
         <v>-1</v>
       </c>
       <c r="J28" s="2">
@@ -2069,7 +2067,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29">
         <f t="shared" ref="A29:H29" si="1">A15</f>
         <v>-6.6653479045099004</v>
       </c>
@@ -2101,7 +2099,7 @@
         <f t="shared" si="1"/>
         <v>7.1404387970788399</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="5">
         <v>-1</v>
       </c>
       <c r="J29" s="2">
@@ -2110,7 +2108,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30">
         <f t="shared" ref="A30:H30" si="2">A16</f>
         <v>5.5351705424954147</v>
       </c>
@@ -2142,7 +2140,7 @@
         <f t="shared" si="2"/>
         <v>5.5631003432052495</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="5">
         <v>-1</v>
       </c>
       <c r="J30" s="2">
@@ -2151,48 +2149,48 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="22">
         <f t="shared" ref="A31:H31" si="3">A17</f>
         <v>6.3974830576207822</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="7">
         <f t="shared" si="3"/>
         <v>-3.3785209457145142</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="7">
         <f t="shared" si="3"/>
         <v>11.427251768828395</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="7">
         <f t="shared" si="3"/>
         <v>-6.0580209732801897</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="7">
         <f t="shared" si="3"/>
         <v>0.85281467540028366</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="7">
         <f t="shared" si="3"/>
         <v>-2.9552037309673933</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="7">
         <f t="shared" si="3"/>
         <v>-5.9783245550882729</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="7">
         <f t="shared" si="3"/>
         <v>2.6497625279036257</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="5">
         <v>-1</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="5">
         <f>A24</f>
         <v>-1.6263596455213456</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="10">
         <f t="array" ref="A32:H32">TRANSPOSE(A3:A10)</f>
         <v>-6.6387078857248332</v>
       </c>
@@ -2217,7 +2215,7 @@
       <c r="H32" s="10">
         <v>3.6445964851685382</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="24">
         <v>-1</v>
       </c>
       <c r="J32" s="11">
@@ -2225,34 +2223,34 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>0</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" s="6">
         <v>-1</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2262,7 +2260,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36">
         <f>A28</f>
         <v>-1.225725546580561</v>
       </c>
@@ -2306,7 +2304,7 @@
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="5">
         <f>I28</f>
         <v>-1</v>
       </c>
@@ -2316,7 +2314,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37">
         <f t="shared" ref="A37:H37" si="5">A29</f>
         <v>-6.6653479045099004</v>
       </c>
@@ -2360,7 +2358,7 @@
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="5">
         <f t="shared" ref="M37:N41" si="6">I29</f>
         <v>-1</v>
       </c>
@@ -2370,7 +2368,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38">
         <f t="shared" ref="A38:H38" si="7">A30</f>
         <v>5.5351705424954147</v>
       </c>
@@ -2414,7 +2412,7 @@
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="5">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
@@ -2428,165 +2426,165 @@
         <f t="shared" ref="A39:H39" si="8">A31</f>
         <v>6.3974830576207822</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="7">
         <f t="shared" si="8"/>
         <v>-3.3785209457145142</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="7">
         <f t="shared" si="8"/>
         <v>11.427251768828395</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="7">
         <f t="shared" si="8"/>
         <v>-6.0580209732801897</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="7">
         <f t="shared" si="8"/>
         <v>0.85281467540028366</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="7">
         <f t="shared" si="8"/>
         <v>-2.9552037309673933</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="7">
         <f t="shared" si="8"/>
         <v>-5.9783245550882729</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="7">
         <f t="shared" si="8"/>
         <v>2.6497625279036257</v>
       </c>
-      <c r="I39" s="2">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8">
         <v>1</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="9">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="5">
         <f t="shared" si="6"/>
         <v>-1.6263596455213456</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+      <c r="A40" s="10">
         <f t="shared" ref="A40:H40" si="9">A32</f>
         <v>-6.6387078857248332</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="1">
         <f t="shared" si="9"/>
         <v>7.4086174025691918</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="1">
         <f t="shared" si="9"/>
         <v>2.2531079085623436</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="1">
         <f t="shared" si="9"/>
         <v>0.68979781931581119</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="1">
         <f t="shared" si="9"/>
         <v>4.3553924345146644</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="1">
         <f t="shared" si="9"/>
         <v>3.3330703159865163</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="1">
         <f t="shared" si="9"/>
         <v>12.347764096062086</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="1">
         <f t="shared" si="9"/>
         <v>3.6445964851685382</v>
       </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="10">
-        <v>0</v>
-      </c>
-      <c r="K40" s="10">
-        <v>0</v>
-      </c>
-      <c r="L40" s="10">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="N40" s="11">
+      <c r="N40" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="1">
         <f t="shared" ref="A41:H41" si="10">A33</f>
         <v>0</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
-      </c>
-      <c r="L41" s="4">
-        <v>0</v>
-      </c>
-      <c r="M41" s="13">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43">
         <v>0</v>
       </c>
       <c r="B43">
@@ -2619,7 +2617,7 @@
       <c r="K43">
         <v>10</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="8">
         <v>11</v>
       </c>
       <c r="M43" s="8">
@@ -2640,12 +2638,12 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <f>M43</f>
-        <v>12</v>
+      <c r="A47">
+        <f>A43</f>
+        <v>0</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47:L47" si="11">B43</f>
+        <f t="shared" ref="B47:M47" si="11">B43</f>
         <v>1</v>
       </c>
       <c r="C47">
@@ -2684,13 +2682,13 @@
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="L47">
-        <f t="shared" si="11"/>
+      <c r="L47" s="8">
+        <f>M43</f>
+        <v>12</v>
+      </c>
+      <c r="M47" s="8">
+        <f>L43</f>
         <v>11</v>
-      </c>
-      <c r="M47" s="8">
-        <f>A43</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3078,7 +3076,7 @@
         <f>F25</f>
         <v>-1</v>
       </c>
-      <c r="K33" s="24">
+      <c r="K33" s="21">
         <f>G25</f>
         <v>7.2653196250753531</v>
       </c>
@@ -3120,7 +3118,7 @@
         <f t="shared" ref="J34:K34" si="7">F26</f>
         <v>-1</v>
       </c>
-      <c r="K34" s="24">
+      <c r="K34" s="21">
         <f t="shared" si="7"/>
         <v>4.7056946090954774</v>
       </c>
@@ -3162,7 +3160,7 @@
         <f t="shared" ref="J35:K35" si="9">F27</f>
         <v>-1</v>
       </c>
-      <c r="K35" s="24">
+      <c r="K35" s="21">
         <f t="shared" si="9"/>
         <v>2.667242754726157</v>
       </c>
@@ -3204,7 +3202,7 @@
         <f t="shared" ref="J36:K36" si="11">F28</f>
         <v>-1</v>
       </c>
-      <c r="K36" s="25">
+      <c r="K36" s="22">
         <f t="shared" si="11"/>
         <v>-5.535832875059306</v>
       </c>
@@ -3252,43 +3250,43 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
+      <c r="A38" s="21">
         <f t="shared" ref="A38:E38" si="14">A30</f>
         <v>0</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="21">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
       </c>
-      <c r="G38" s="24">
-        <v>0</v>
-      </c>
-      <c r="H38" s="24">
-        <v>0</v>
-      </c>
-      <c r="I38" s="24">
+      <c r="G38" s="21">
+        <v>0</v>
+      </c>
+      <c r="H38" s="21">
+        <v>0</v>
+      </c>
+      <c r="I38" s="21">
         <v>0</v>
       </c>
       <c r="J38" s="5">
         <f t="shared" ref="J38:K38" si="15">F30</f>
         <v>-1</v>
       </c>
-      <c r="K38" s="24">
+      <c r="K38" s="21">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -3426,11 +3424,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I48" s="26">
+      <c r="I48" s="23">
         <f>J33</f>
         <v>-1</v>
       </c>
-      <c r="J48" s="26">
+      <c r="J48" s="23">
         <f>I33</f>
         <v>0</v>
       </c>
@@ -3518,11 +3516,11 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="I50" s="26">
+      <c r="I50" s="23">
         <f t="shared" si="19"/>
         <v>-1</v>
       </c>
-      <c r="J50" s="26">
+      <c r="J50" s="23">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3564,11 +3562,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I51" s="26">
+      <c r="I51" s="23">
         <f t="shared" si="19"/>
         <v>-1</v>
       </c>
-      <c r="J51" s="26">
+      <c r="J51" s="23">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -3610,11 +3608,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I52" s="26">
+      <c r="I52" s="23">
         <f t="shared" si="19"/>
         <v>-1</v>
       </c>
-      <c r="J52" s="26">
+      <c r="J52" s="23">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3656,11 +3654,11 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I53" s="26">
+      <c r="I53" s="23">
         <f t="shared" si="19"/>
         <v>-1</v>
       </c>
-      <c r="J53" s="26">
+      <c r="J53" s="23">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3784,1251 +3782,1251 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*20-7</f>
-        <v>9.4974891305704396</v>
+        <v>3.4979883738792772</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:L16" ca="1" si="0">RAND()*20-7</f>
-        <v>12.508023831331521</v>
+        <v>9.7798921257514131</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0184303246218462</v>
+        <v>7.2698814992697525</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1392257660054508</v>
+        <v>-3.4540095039793965</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8392954820175547</v>
+        <v>6.0951060670893256</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.2262093511807475</v>
+        <v>12.516150756226985</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0195308020009684</v>
+        <v>4.3706436558285517</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8091367174940167</v>
+        <v>9.3804364202903514</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.757642434550986</v>
+        <v>7.1281397418232242</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.66026633526639333</v>
+        <v>5.2620846613820476</v>
       </c>
       <c r="K1">
         <f ca="1">RAND()*20-7</f>
-        <v>2.816958269532055</v>
+        <v>-6.3244383366856853</v>
       </c>
       <c r="L1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6230764641563518</v>
+        <v>5.5830901983214893</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:L25" ca="1" si="1">RAND()*20-7</f>
-        <v>5.7388734042680323</v>
+        <v>-6.7547774641479794</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2452206210200316</v>
+        <v>-0.55416761638548806</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.3002180592872215</v>
+        <v>2.7209450785837888</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.268416699456659</v>
+        <v>-4.4957178139875875</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9849318416415116</v>
+        <v>8.5858079412437682</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>12.063763112077822</v>
+        <v>-2.5846095925928179</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.039472002965411</v>
+        <v>-2.1023816652927501</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.2735274080289063</v>
+        <v>6.0028151005989443</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2441483027328992</v>
+        <v>-6.7315864441301763</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7233308035698904</v>
+        <v>4.6525643288047753</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7781612946073722</v>
+        <v>3.308519339824926</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0603683463057365</v>
+        <v>-5.8043336665685228</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.135019216937641</v>
+        <v>-0.89624681524868244</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9807303909008969</v>
+        <v>1.959397171270755</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8289521238051343</v>
+        <v>9.7032557632324981</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5367386081397969</v>
+        <v>-2.0359878066271975</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>12.704973872432905</v>
+        <v>-0.96618574103942478</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30141031722320033</v>
+        <v>9.3632385882177722</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>12.817562601188442</v>
+        <v>4.4241372984593568</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9845770722839831</v>
+        <v>0.67102727693150399</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.6551317255862923</v>
+        <v>-4.1650450894140878</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7669158004158056</v>
+        <v>-5.6553786609504391</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23721453405956794</v>
+        <v>11.824518186800134</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3104828722128854</v>
+        <v>-5.518581586561444</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6999294970864689</v>
+        <v>6.8185355206771394</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8742180748029824</v>
+        <v>6.5692572966975007</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0389563233189385</v>
+        <v>5.823022518429628</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1280016712675405</v>
+        <v>1.8743858535911908</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0437891437225328</v>
+        <v>-0.17568840534202046</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.009354082799256</v>
+        <v>-6.4980880667894407</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9375068630819268</v>
+        <v>-1.1522631869044453</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9512294314826883</v>
+        <v>-1.7685207697507925</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6965988632651445</v>
+        <v>10.192701698110401</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7525324969243297</v>
+        <v>2.0059096976768078</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8650794497385252</v>
+        <v>2.358314686976998</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4553271425891197</v>
+        <v>-3.5386497172539992</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7925956514599442</v>
+        <v>11.665168865637675</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0906168061323527</v>
+        <v>11.454185253396414</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6242703686709916</v>
+        <v>-1.8733977053146837</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5549799330636258</v>
+        <v>-6.2984786762727829</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.3551515354382593</v>
+        <v>4.0639052369371793</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52998793473525119</v>
+        <v>11.46841798936569</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4869464048435717</v>
+        <v>-0.82112071527837927</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3726343379945298</v>
+        <v>8.7497136285503245</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7032326667125179</v>
+        <v>1.153012861165557</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.915003475334661</v>
+        <v>7.4286595899382863</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9629248508514578</v>
+        <v>1.9306645049363613</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.052673878690003</v>
+        <v>12.752239677847893</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.84317774834864068</v>
+        <v>7.0264226889190979</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40611291360393498</v>
+        <v>12.62248453902874</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9896082404745847</v>
+        <v>2.6189922635348957</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.48988270476650264</v>
+        <v>6.0068792808890201</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0585117326560862</v>
+        <v>-6.7368405528257203</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2061128151658558</v>
+        <v>-5.8019745657580213</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8718844335323208</v>
+        <v>10.151618504340934</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>11.66677237091308</v>
+        <v>7.2871491462133342</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6597677534553839</v>
+        <v>2.2826678962902154</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4484372087835542</v>
+        <v>11.557999575111666</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9014738163538283</v>
+        <v>-2.9866019192867288</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2408416756258731</v>
+        <v>0.12822367551073643</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>12.716185744913993</v>
+        <v>-3.8326749292097011</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.933622899608782</v>
+        <v>11.162682089129106</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10605138488470178</v>
+        <v>7.6995489782148923</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28527925439894908</v>
+        <v>11.312264279289568</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3563423701513768</v>
+        <v>5.7936713520552185</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5034356861578413</v>
+        <v>9.3543632363215039</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0540855890727601</v>
+        <v>-1.6285045974799992</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1958081275634687</v>
+        <v>3.6436725582142788</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.1759168823611281</v>
+        <v>-4.717566599332784</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.0920074622681124</v>
+        <v>-2.8120643089040254</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.786562682810715</v>
+        <v>11.520358863804944</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9972464444636531</v>
+        <v>6.8669095990155569</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.88865146589083821</v>
+        <v>10.953876481071593</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2897821114633956</v>
+        <v>-1.8937552047377997</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.3756293449231149</v>
+        <v>0.80925200543965481</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8875534209721891</v>
+        <v>-3.0804422839254624</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5412745438838584</v>
+        <v>4.6361396305958387</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5762974465647588</v>
+        <v>8.232664561182963</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5381856010362149</v>
+        <v>-3.7668811673688101</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>12.617537615985732</v>
+        <v>5.7477339297063104</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5527238577435014</v>
+        <v>0.76181107397611481</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>11.982508314601169</v>
+        <v>6.0221286379097982</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9221870836725685</v>
+        <v>3.5648525887199796</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>12.463852784939363</v>
+        <v>2.6727290909411821</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2678186461966732</v>
+        <v>2.7155173936585033</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.46723881547757</v>
+        <v>11.689857006515826</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>12.741881179441609</v>
+        <v>-2.502762100806466</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.035703605450788</v>
+        <v>2.5094755721707553</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8340839950245629</v>
+        <v>9.2392562426350935</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>10.345060458270076</v>
+        <v>5.9735047293151453</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1662996129609216</v>
+        <v>-2.4039715532131467</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4218588399694312</v>
+        <v>3.0871202166618872</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>12.71198667918728</v>
+        <v>8.0682000330961134</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0851589604368215</v>
+        <v>2.4641222796550846</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3954913153108865</v>
+        <v>-6.7283613618361926</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4080210892046807</v>
+        <v>-5.4671424427669839</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8995770622458146</v>
+        <v>11.432032054641152</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9591984925874186</v>
+        <v>6.320572372258038</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6290956235287606</v>
+        <v>-0.9284122492296758</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63424545289074441</v>
+        <v>12.400366240604164</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7314314114448788</v>
+        <v>1.2725222847397628</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7682336186269758</v>
+        <v>1.4547488850415498</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9696568463720432</v>
+        <v>-1.9320636130032565</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7479843654672784</v>
+        <v>9.7760583072763296</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>12.561225201914375</v>
+        <v>7.1547298595937825</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8214973304061601</v>
+        <v>2.6654433248526743</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5490924909503754</v>
+        <v>-2.8051397378880454</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9128782931142947</v>
+        <v>-2.4311305070838189</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.1149501669265867</v>
+        <v>-4.934417101299422</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6841302885302785</v>
+        <v>-1.2684964835032657</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.041938945309127</v>
+        <v>-2.0602093119669123</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>11.61207697758157</v>
+        <v>3.6848581227000459</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4397387712756551</v>
+        <v>5.1817593625543701</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0810636522553363</v>
+        <v>6.7771060940845551</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.986403087655388</v>
+        <v>6.6673856529847839</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>11.233619574580484</v>
+        <v>10.528833641243533</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6422274158864445</v>
+        <v>5.8099354568835828</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7453858230707997</v>
+        <v>-3.5668111244925753</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.2139829923237322</v>
+        <v>0.18500487468880511</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3078455490330949</v>
+        <v>5.6874723972972276</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.541398244487981</v>
+        <v>-0.81153521574667131</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.375008942583646</v>
+        <v>5.2018529098120343</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5674835320689571</v>
+        <v>-5.3377810616066261</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.403481805424569</v>
+        <v>-0.58328107305462051</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.400215603334253</v>
+        <v>-4.8733307948897258</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5518619735911283</v>
+        <v>-3.7763964472171945</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8701729253656705</v>
+        <v>-1.490892598424276</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1110047558794909</v>
+        <v>3.3904000499119498</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80191461397468267</v>
+        <v>0.11227775829241349</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5705808727796562</v>
+        <v>2.6039372542767616</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0557848140837862</v>
+        <v>-5.5682845770818954</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9491213656519886</v>
+        <v>-3.4296273522781044</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6709032498394585</v>
+        <v>4.9078023845452172</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0019989624895942</v>
+        <v>6.5441269352952744</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8122021670420896</v>
+        <v>6.9045455319797622</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4132048554611387</v>
+        <v>3.5272452238662773</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1235994052703653</v>
+        <v>-1.111222963167589</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1740660644592005</v>
+        <v>-1.1805803840095574</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8368792295081366</v>
+        <v>0.3423108854542658</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7820874153396034</v>
+        <v>3.324400425549765</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>11.341170570847048</v>
+        <v>0.93109760601637248</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1795118970760132</v>
+        <v>5.8360011696928549</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2209220315355451</v>
+        <v>-5.8215422795539888</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2308371711746844</v>
+        <v>7.7837146916781172</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84224060110897181</v>
+        <v>9.3750102330397276</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>11.242871984624387</v>
+        <v>8.124920369619792</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5223419745176638</v>
+        <v>-6.2504528794914105</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.685535023447569</v>
+        <v>8.7345489493029618</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2686529374954372</v>
+        <v>3.5528058650054035</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2577872108640484</v>
+        <v>3.7484175330582694</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.009427147946699</v>
+        <v>-4.2334652905730419</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>12.884636609096066</v>
+        <v>7.8844332437686901</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7642999707202023</v>
+        <v>1.33899892360634</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>10.112061376349345</v>
+        <v>7.5321358303377242</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9131535034916105</v>
+        <v>5.6342783696283085</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3985269793221526E-2</v>
+        <v>7.8161412577825757</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>12.7749848623939</v>
+        <v>4.2040890567203366</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2162730378639033</v>
+        <v>1.3212179152072352</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.8269081142997461</v>
+        <v>5.4488733356401191</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8260507891354294</v>
+        <v>-4.0250583873437105</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8604315813162113</v>
+        <v>-5.878788731840654</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>11.613396288621097</v>
+        <v>3.1524645717426942</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1244000888190655</v>
+        <v>3.9616570458495026</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0796213645515031</v>
+        <v>10.517574492750093</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4815380443589721</v>
+        <v>12.207970938300015</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>11.393029743484814</v>
+        <v>7.2549323199726423</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8800590607560661</v>
+        <v>11.879886167622331</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4171511590807686</v>
+        <v>6.1212229352635639</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.0801692720179634</v>
+        <v>11.118165953780963</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>12.65854410625197</v>
+        <v>-3.0408362291417905</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6312976919941455</v>
+        <v>6.3136677017987974</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3330692276408964</v>
+        <v>10.363609520910558</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5906683373170214</v>
+        <v>7.9582758214512204</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8164402639445552</v>
+        <v>4.7975668692336022</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9773446575184348</v>
+        <v>-2.9344691517724719</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5190904414607154</v>
+        <v>-6.739884443395816</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5378942345936442</v>
+        <v>5.2851412923265642</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1127107042492881</v>
+        <v>2.0490966070412107</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>10.812861244529348</v>
+        <v>-4.5372895964631503</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>10.263807297766068</v>
+        <v>-0.90025460910049304</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>11.155015769042731</v>
+        <v>3.1631389897886582</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65134102764616131</v>
+        <v>7.0568613559835214</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1002483793499724</v>
+        <v>-3.6008427316194718</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>11.209867624574144</v>
+        <v>5.4358379681271796</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10520984716650261</v>
+        <v>1.146270952392543</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4824288217632642E-2</v>
+        <v>3.7084216979050915</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9712313688806677</v>
+        <v>-4.8868523758326763</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6629259205322313</v>
+        <v>-2.0883525007903563</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.852159884079164</v>
+        <v>1.9154662690376405</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2832284530832894</v>
+        <v>-6.523044631191242</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30081362264334732</v>
+        <v>7.5480140869714152</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.203378921314211</v>
+        <v>-4.6633224497997059</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7392553388377561</v>
+        <v>-4.0342981185440774</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7906064620048423</v>
+        <v>9.1198109282605913</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4809738487742763</v>
+        <v>11.001739500833441</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.745750455543579</v>
+        <v>0.78972564413701551</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1873752146640246</v>
+        <v>-3.9156858400383459</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.0752397584913158</v>
+        <v>-3.6288176301277613</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8956824570075383</v>
+        <v>4.4771641445661885</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.6802806523009775</v>
+        <v>-3.9080853564096389</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>12.529363627469547</v>
+        <v>3.4785487180436494</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2946982978796129</v>
+        <v>8.1658801108758805</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0484662876118911</v>
+        <v>11.173411660806948</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4206276405768445</v>
+        <v>11.549780403327979</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2791360658784434</v>
+        <v>-4.4024089108360558</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>12.804857311408345</v>
+        <v>12.149488572061841</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21055297440837784</v>
+        <v>-2.4165081941547371</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>11.334037713101555</v>
+        <v>-3.9888497529942284</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.8517952136519167</v>
+        <v>6.1917106447257222</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.6315922354213424</v>
+        <v>0.14761407774908264</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0383976127753094</v>
+        <v>9.3861347526664254</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8357815276578009</v>
+        <v>-3.2495735307100708</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3035851175501065</v>
+        <v>10.583196401377382</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5268850819393229</v>
+        <v>3.1575938121137384</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0209675883335052</v>
+        <v>-2.2544294821601696</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3808463391950099</v>
+        <v>2.4262339808076412</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8411584298167973</v>
+        <v>8.0945679355230986</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>12.851650741027658</v>
+        <v>12.098093884540994</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6501824359627806</v>
+        <v>12.600800213933105</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.1620745299452242</v>
+        <v>3.8153865822657025</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1507388814013684</v>
+        <v>-5.1583008897564397E-2</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7506862474078346</v>
+        <v>1.91172802604415</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0807226982376879</v>
+        <v>12.289464445588234</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.464204729882832</v>
+        <v>5.132881949841325</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>11.62700527211376</v>
+        <v>4.2469469455706204</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.9394369193387231</v>
+        <v>4.1624331380583754</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7507160754535889</v>
+        <v>-1.9879987490195248</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8042765020169753</v>
+        <v>2.1660018147379336</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.6759604653676901</v>
+        <v>-1.2317851535217255</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.7863840421265813</v>
+        <v>12.586489196324489</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6190187094038038</v>
+        <v>2.3819107534179373E-2</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>10.11906619516434</v>
+        <v>-6.2364536834686772</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1986283568548011</v>
+        <v>5.8145899952843507</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.2401489114899924</v>
+        <v>11.772659495047851</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>11.942924823673611</v>
+        <v>-3.0675149534456918</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>10.29853956543095</v>
+        <v>3.3532634475437924</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>12.629829919024793</v>
+        <v>1.2043034246482538</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5437389152357568</v>
+        <v>-0.37425932636057624</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.98734671605045943</v>
+        <v>10.812606807707486</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="1"/>
-        <v>11.766452008241483</v>
+        <v>-2.605419782662846</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.637440234541117</v>
+        <v>-6.7583355846707693</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6298932494201193</v>
+        <v>1.4074274794052712</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9685381470515324</v>
+        <v>-6.4817796732696014</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6997650627760859</v>
+        <v>9.2292797125419526</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5408166722956</v>
+        <v>0.36509300192923</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2143562215482504</v>
+        <v>0.8713412804195908</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.7784053055605762</v>
+        <v>-0.62444980099141834</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>10.351392631685176</v>
+        <v>1.584673828602071</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0442103470227515</v>
+        <v>-3.2142315837119888</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.90160433773718829</v>
+        <v>-2.6398135738481114</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5582436906377399</v>
+        <v>-0.4689595965151927</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3046270744437329</v>
+        <v>12.60709931117627</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.8526326896640324</v>
+        <v>-0.14694004141475414</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>11.75805633266576</v>
+        <v>5.1033473253229431</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.4027883272614741</v>
+        <v>-3.3961488328785387</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.14900664434694555</v>
+        <v>7.2907887999476273</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7930392121173782</v>
+        <v>10.890781885290654</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6995266608838566</v>
+        <v>9.1522575622657207</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7150415088227824</v>
+        <v>-6.4864997365155501</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.72565714598701359</v>
+        <v>2.7112272417666912</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2224794965458621</v>
+        <v>9.8623882054859955</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>11.12013434658045</v>
+        <v>-0.91771194846021853</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.2516881374304445</v>
+        <v>9.3966100458530377</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.98519171745570233</v>
+        <v>0.32045051955239501</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.7367317899071502</v>
+        <v>-5.9881544262379283</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>11.687339604783759</v>
+        <v>7.5237280463881024</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>10.588562768759665</v>
+        <v>-6.3666795191916385</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.8056749596439818</v>
+        <v>4.6456922419272519</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.33035942656805251</v>
+        <v>5.4215647107315945</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>6.97651436910024</v>
+        <v>10.216701693211579</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9797499335403792</v>
+        <v>10.357002065497916</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>11.226337498910262</v>
+        <v>3.2014795643320237</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.4043854543126217</v>
+        <v>10.147266543179335</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97126726714625988</v>
+        <v>7.634989327740314</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2979211129824044</v>
+        <v>9.0090957188284548</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4935939133387244</v>
+        <v>-5.7038760994372755</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.77471663994238593</v>
+        <v>6.8951840089265151</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8330072559913777</v>
+        <v>3.0437023438280164</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.4179972799229601</v>
+        <v>-0.36541010993753176</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.061805515874843</v>
+        <v>-5.1798556488364627</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>3.58064670776821</v>
+        <v>-4.5685593518989824</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>10.586477849920463</v>
+        <v>1.5404481332174047</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.5809420556921108</v>
+        <v>-2.4472407944834034</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>10.44079654375621</v>
+        <v>-0.73587744597719329</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6398819028502025</v>
+        <v>1.9976988111504941</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1037086471474407</v>
+        <v>9.2859951671791876</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.765690141660059</v>
+        <v>8.0170134790415073</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="1"/>
-        <v>12.850999686381329</v>
+        <v>6.4278285178725358</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/MutableTableauTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/MutableTableauTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="630" yWindow="-225" windowWidth="27555" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="construct 3x5" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="swap 2,3" sheetId="4" r:id="rId3"/>
     <sheet name="swap aux 3,8" sheetId="5" r:id="rId4"/>
     <sheet name="swap aux 3,9 1,3" sheetId="6" r:id="rId5"/>
-    <sheet name="rand" sheetId="3" r:id="rId6"/>
+    <sheet name="swap aux 2,5 2,2 and collapse" sheetId="7" r:id="rId6"/>
+    <sheet name="rand" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>#0</t>
   </si>
@@ -68,12 +69,45 @@
   <si>
     <t>#103</t>
   </si>
+  <si>
+    <t>c^t=</t>
+  </si>
+  <si>
+    <t>Swap 2, 5</t>
+  </si>
+  <si>
+    <t>Variable Index</t>
+  </si>
+  <si>
+    <t>Swapped column values are reset to 1</t>
+  </si>
+  <si>
+    <t>Swap 2, 2</t>
+  </si>
+  <si>
+    <t>Reset swapped value to 1</t>
+  </si>
+  <si>
+    <t>Collapse</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +172,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,8 +211,19 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -218,14 +284,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -251,8 +382,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -557,13 +709,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H30" sqref="A29:H30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -579,32 +731,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2.5314051618820184</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>-1.1995971699596168</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>5.8972632706780033</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="array" ref="C5:G5">TRANSPOSE(A3:A7)</f>
+        <v>2.5314051618820184</v>
+      </c>
+      <c r="D5">
+        <v>-1.1995971699596168</v>
+      </c>
+      <c r="E5">
+        <v>5.8972632706780033</v>
+      </c>
+      <c r="F5">
+        <v>-4.3915821001323367</v>
+      </c>
+      <c r="G5">
+        <v>-5.7912691038789585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>-4.3915821001323367</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>-5.7912691038789585</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -612,7 +783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -620,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>1.4357256328989827</v>
       </c>
@@ -637,7 +808,7 @@
         <v>-5.2581166018012553</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>8.1941742195425338</v>
       </c>
@@ -654,7 +825,7 @@
         <v>3.5300122571595125</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>1.230632335287174</v>
       </c>
@@ -671,7 +842,7 @@
         <v>9.7364836031295496</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -679,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -868,9 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1221,7 +1390,7 @@
         <v>-4.6052398743878635</v>
       </c>
       <c r="G30" s="6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -1314,7 +1483,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection sqref="A1:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,7 +2385,7 @@
         <v>3.6445964851685382</v>
       </c>
       <c r="I32" s="24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="11">
         <v>0</v>
@@ -2522,7 +2691,7 @@
       </c>
       <c r="M40" s="6">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="3">
         <f t="shared" si="6"/>
@@ -2643,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47:M47" si="11">B43</f>
+        <f t="shared" ref="B47:K47" si="11">B43</f>
         <v>1</v>
       </c>
       <c r="C47">
@@ -2700,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3005,7 +3174,7 @@
         <v>-6.4625708916572426</v>
       </c>
       <c r="F29" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -3242,7 +3411,7 @@
       </c>
       <c r="J37" s="6">
         <f t="shared" ref="J37:K37" si="13">F29</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="13"/>
@@ -3610,7 +3779,7 @@
       </c>
       <c r="I52" s="23">
         <f t="shared" si="19"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="23">
         <f t="shared" si="20"/>
@@ -3771,10 +3940,2552 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2.9653120679234917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>-4.642624851410762</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>3.8471070420251472</v>
+      </c>
+      <c r="C5">
+        <f t="array" ref="C5:G5">TRANSPOSE(A3:A7)</f>
+        <v>2.9653120679234917</v>
+      </c>
+      <c r="D5">
+        <v>-4.642624851410762</v>
+      </c>
+      <c r="E5">
+        <v>3.8471070420251472</v>
+      </c>
+      <c r="F5">
+        <v>1.4158603267477936</v>
+      </c>
+      <c r="G5">
+        <v>-4.8235859417943709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>1.4158603267477936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>-4.8235859417943709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>6.6368572440094908</v>
+      </c>
+      <c r="B11" s="15">
+        <v>4.2684848930633397</v>
+      </c>
+      <c r="C11" s="15">
+        <v>4.3011718867884525</v>
+      </c>
+      <c r="D11" s="15">
+        <v>-0.81749042528060478</v>
+      </c>
+      <c r="E11" s="15">
+        <v>7.5509719301266607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>-4.517045250350054</v>
+      </c>
+      <c r="B12" s="15">
+        <v>-4.2314153758942634</v>
+      </c>
+      <c r="C12" s="15">
+        <v>3.9851019627827817</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1.8051918764465213</v>
+      </c>
+      <c r="E12" s="15">
+        <v>-4.3359668043161737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>-5.1110514773088527</v>
+      </c>
+      <c r="B13" s="15">
+        <v>2.4551596093757908</v>
+      </c>
+      <c r="C13" s="15">
+        <v>7.8288952831615468</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.40601360805803743</v>
+      </c>
+      <c r="E13" s="15">
+        <v>5.3381808976006724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>-6.7655320267373291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>-4.662088695877074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>10.255891424421755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <f>A11</f>
+        <v>6.6368572440094908</v>
+      </c>
+      <c r="B23" s="15">
+        <f t="shared" ref="B23:E23" si="0">B11</f>
+        <v>4.2684848930633397</v>
+      </c>
+      <c r="C23" s="15">
+        <f t="shared" si="0"/>
+        <v>4.3011718867884525</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.81749042528060478</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="0"/>
+        <v>7.5509719301266607</v>
+      </c>
+      <c r="F23" s="25">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="17">
+        <f>A17</f>
+        <v>-6.7655320267373291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <f t="shared" ref="A24:E25" si="1">A12</f>
+        <v>-4.517045250350054</v>
+      </c>
+      <c r="B24" s="15">
+        <f t="shared" si="1"/>
+        <v>-4.2314153758942634</v>
+      </c>
+      <c r="C24" s="15">
+        <f t="shared" si="1"/>
+        <v>3.9851019627827817</v>
+      </c>
+      <c r="D24" s="15">
+        <f t="shared" si="1"/>
+        <v>1.8051918764465213</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="1"/>
+        <v>-4.3359668043161737</v>
+      </c>
+      <c r="F24" s="25">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" ref="G24:G25" si="2">A18</f>
+        <v>-4.662088695877074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <f t="shared" si="1"/>
+        <v>-5.1110514773088527</v>
+      </c>
+      <c r="B25" s="15">
+        <f t="shared" si="1"/>
+        <v>2.4551596093757908</v>
+      </c>
+      <c r="C25" s="15">
+        <f t="shared" si="1"/>
+        <v>7.8288952831615468</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" si="1"/>
+        <v>0.40601360805803743</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="1"/>
+        <v>5.3381808976006724</v>
+      </c>
+      <c r="F25" s="25">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="2"/>
+        <v>10.255891424421755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <f t="shared" ref="A29:E31" si="3">A23</f>
+        <v>6.6368572440094908</v>
+      </c>
+      <c r="B29" s="15">
+        <f t="shared" si="3"/>
+        <v>4.2684848930633397</v>
+      </c>
+      <c r="C29" s="15">
+        <f t="shared" si="3"/>
+        <v>4.3011718867884525</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.81749042528060478</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="3"/>
+        <v>7.5509719301266607</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="28">
+        <f t="shared" ref="I29:J31" si="4">F23</f>
+        <v>-1</v>
+      </c>
+      <c r="J29" s="17">
+        <f t="shared" si="4"/>
+        <v>-6.7655320267373291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <f t="shared" si="3"/>
+        <v>-4.517045250350054</v>
+      </c>
+      <c r="B30" s="15">
+        <f t="shared" si="3"/>
+        <v>-4.2314153758942634</v>
+      </c>
+      <c r="C30" s="15">
+        <f t="shared" si="3"/>
+        <v>3.9851019627827817</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" si="3"/>
+        <v>1.8051918764465213</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="3"/>
+        <v>-4.3359668043161737</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="28">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="J30" s="17">
+        <f t="shared" si="4"/>
+        <v>-4.662088695877074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <f t="shared" si="3"/>
+        <v>-5.1110514773088527</v>
+      </c>
+      <c r="B31" s="7">
+        <f t="shared" si="3"/>
+        <v>2.4551596093757908</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" si="3"/>
+        <v>7.8288952831615468</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="3"/>
+        <v>0.40601360805803743</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="3"/>
+        <v>5.3381808976006724</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="28">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="4"/>
+        <v>10.255891424421755</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <f t="array" ref="A32:E32">TRANSPOSE(A3:A7)</f>
+        <v>2.9653120679234917</v>
+      </c>
+      <c r="B32" s="27">
+        <v>-4.642624851410762</v>
+      </c>
+      <c r="C32" s="27">
+        <v>3.8471070420251472</v>
+      </c>
+      <c r="D32" s="27">
+        <v>1.4158603267477936</v>
+      </c>
+      <c r="E32" s="35">
+        <v>-4.8235859417943709</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
+      <c r="I32" s="33">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f>A26</f>
+        <v>0</v>
+      </c>
+      <c r="B33" s="1">
+        <f>B26</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <f>C26</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <f>D26</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f>E26</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="34">
+        <f>F26</f>
+        <v>-1</v>
+      </c>
+      <c r="J33" s="3">
+        <f>G26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
+        <v>0</v>
+      </c>
+      <c r="B34" s="30">
+        <v>1</v>
+      </c>
+      <c r="C34" s="30">
+        <v>2</v>
+      </c>
+      <c r="D34" s="30">
+        <v>3</v>
+      </c>
+      <c r="E34" s="30">
+        <v>4</v>
+      </c>
+      <c r="F34" s="31">
+        <v>5</v>
+      </c>
+      <c r="G34" s="32">
+        <v>6</v>
+      </c>
+      <c r="H34" s="22">
+        <v>7</v>
+      </c>
+      <c r="I34" s="22">
+        <v>8</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <f t="shared" ref="A37:G40" si="5">A29</f>
+        <v>6.6368572440094908</v>
+      </c>
+      <c r="B37" s="15">
+        <f t="shared" si="5"/>
+        <v>4.2684848930633397</v>
+      </c>
+      <c r="C37" s="15">
+        <f t="shared" si="5"/>
+        <v>4.3011718867884525</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" si="5"/>
+        <v>-0.81749042528060478</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="5"/>
+        <v>7.5509719301266607</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="37">
+        <v>1</v>
+      </c>
+      <c r="J37" s="20">
+        <f>J29</f>
+        <v>-6.7655320267373291</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <f t="shared" si="5"/>
+        <v>-4.517045250350054</v>
+      </c>
+      <c r="B38" s="15">
+        <f t="shared" si="5"/>
+        <v>-4.2314153758942634</v>
+      </c>
+      <c r="C38" s="15">
+        <f t="shared" si="5"/>
+        <v>3.9851019627827817</v>
+      </c>
+      <c r="D38" s="15">
+        <f t="shared" si="5"/>
+        <v>1.8051918764465213</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="5"/>
+        <v>-4.3359668043161737</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="37">
+        <v>1</v>
+      </c>
+      <c r="J38" s="20">
+        <f>J30</f>
+        <v>-4.662088695877074</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <f t="shared" si="5"/>
+        <v>-5.1110514773088527</v>
+      </c>
+      <c r="B39" s="15">
+        <f t="shared" si="5"/>
+        <v>2.4551596093757908</v>
+      </c>
+      <c r="C39" s="15">
+        <f t="shared" si="5"/>
+        <v>7.8288952831615468</v>
+      </c>
+      <c r="D39" s="15">
+        <f t="shared" si="5"/>
+        <v>0.40601360805803743</v>
+      </c>
+      <c r="E39" s="15">
+        <f t="shared" si="5"/>
+        <v>5.3381808976006724</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="37">
+        <v>1</v>
+      </c>
+      <c r="J39" s="20">
+        <f>J31</f>
+        <v>10.255891424421755</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="27">
+        <f t="shared" si="5"/>
+        <v>2.9653120679234917</v>
+      </c>
+      <c r="B40" s="27">
+        <f t="shared" si="5"/>
+        <v>-4.642624851410762</v>
+      </c>
+      <c r="C40" s="27">
+        <f t="shared" si="5"/>
+        <v>3.8471070420251472</v>
+      </c>
+      <c r="D40" s="27">
+        <f t="shared" si="5"/>
+        <v>1.4158603267477936</v>
+      </c>
+      <c r="E40" s="27">
+        <f t="shared" si="5"/>
+        <v>-4.8235859417943709</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <f>I32</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="38">
+        <v>1</v>
+      </c>
+      <c r="J40" s="11">
+        <f>J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <f t="shared" ref="A41:G41" si="6">A33</f>
+        <v>0</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="39">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" ref="J41:J42" si="7">J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
+        <f t="shared" ref="A42:G42" si="8">A34</f>
+        <v>0</v>
+      </c>
+      <c r="B42" s="32">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C42" s="32">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D42" s="32">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E42" s="32">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F42" s="31">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G42" s="32">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="H42" s="32">
+        <f>I34</f>
+        <v>8</v>
+      </c>
+      <c r="I42" s="31">
+        <f>H34</f>
+        <v>7</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Variable Index</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>A37</f>
+        <v>6.6368572440094908</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46:E46" si="9">B37</f>
+        <v>4.2684848930633397</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="9"/>
+        <v>4.3011718867884525</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="9"/>
+        <v>-0.81749042528060478</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="9"/>
+        <v>7.5509719301266607</v>
+      </c>
+      <c r="F46" s="2">
+        <f>I37</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <f>J37</f>
+        <v>-6.7655320267373291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" ref="A47:E47" si="10">A38</f>
+        <v>-4.517045250350054</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="10"/>
+        <v>-4.2314153758942634</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="10"/>
+        <v>3.9851019627827817</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="10"/>
+        <v>1.8051918764465213</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="10"/>
+        <v>-4.3359668043161737</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" ref="F47:G47" si="11">I38</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="11"/>
+        <v>-4.662088695877074</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" ref="A48:E48" si="12">A39</f>
+        <v>-5.1110514773088527</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="12"/>
+        <v>2.4551596093757908</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="12"/>
+        <v>7.8288952831615468</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="12"/>
+        <v>0.40601360805803743</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="12"/>
+        <v>5.3381808976006724</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" ref="F48:G48" si="13">I39</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="13"/>
+        <v>10.255891424421755</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <f>A41</f>
+        <v>0</v>
+      </c>
+      <c r="B49" s="1">
+        <f>B41</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <f>C41</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <f>D41</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <f>E41</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <f>I41</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <f>J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="30">
+        <f t="shared" ref="A53:I53" si="14">A42</f>
+        <v>0</v>
+      </c>
+      <c r="B53" s="30">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C53" s="30">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="D53" s="30">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="E53" s="30">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="F53" s="30">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="G53" s="30">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H53" s="30">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="I53" s="30">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <f t="shared" ref="A55:J55" si="15">A37</f>
+        <v>6.6368572440094908</v>
+      </c>
+      <c r="B55" s="15">
+        <f t="shared" si="15"/>
+        <v>4.2684848930633397</v>
+      </c>
+      <c r="C55" s="7">
+        <f t="shared" si="15"/>
+        <v>4.3011718867884525</v>
+      </c>
+      <c r="D55" s="15">
+        <f t="shared" si="15"/>
+        <v>-0.81749042528060478</v>
+      </c>
+      <c r="E55" s="15">
+        <f t="shared" si="15"/>
+        <v>7.5509719301266607</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="37">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J55" s="17">
+        <f t="shared" si="15"/>
+        <v>-6.7655320267373291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <f t="shared" ref="A56:J56" si="16">A38</f>
+        <v>-4.517045250350054</v>
+      </c>
+      <c r="B56" s="15">
+        <f t="shared" si="16"/>
+        <v>-4.2314153758942634</v>
+      </c>
+      <c r="C56" s="7">
+        <f t="shared" si="16"/>
+        <v>3.9851019627827817</v>
+      </c>
+      <c r="D56" s="15">
+        <f t="shared" si="16"/>
+        <v>1.8051918764465213</v>
+      </c>
+      <c r="E56" s="15">
+        <f t="shared" si="16"/>
+        <v>-4.3359668043161737</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H56" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="37">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J56" s="17">
+        <f t="shared" si="16"/>
+        <v>-4.662088695877074</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <f t="shared" ref="A57:J57" si="17">A39</f>
+        <v>-5.1110514773088527</v>
+      </c>
+      <c r="B57" s="7">
+        <f t="shared" si="17"/>
+        <v>2.4551596093757908</v>
+      </c>
+      <c r="C57" s="7">
+        <f t="shared" si="17"/>
+        <v>7.8288952831615468</v>
+      </c>
+      <c r="D57" s="7">
+        <f t="shared" si="17"/>
+        <v>0.40601360805803743</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" si="17"/>
+        <v>5.3381808976006724</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I57" s="5">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <f t="shared" si="17"/>
+        <v>10.255891424421755</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="36">
+        <f t="shared" ref="A58:J58" si="18">A40</f>
+        <v>2.9653120679234917</v>
+      </c>
+      <c r="B58" s="36">
+        <f t="shared" si="18"/>
+        <v>-4.642624851410762</v>
+      </c>
+      <c r="C58" s="29">
+        <f t="shared" si="18"/>
+        <v>3.8471070420251472</v>
+      </c>
+      <c r="D58" s="36">
+        <f t="shared" si="18"/>
+        <v>1.4158603267477936</v>
+      </c>
+      <c r="E58" s="36">
+        <f t="shared" si="18"/>
+        <v>-4.8235859417943709</v>
+      </c>
+      <c r="F58" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="38">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="J58" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" ref="A59:J59" si="19">A41</f>
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="37">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="30">
+        <f t="shared" ref="A60:J60" si="20">A42</f>
+        <v>0</v>
+      </c>
+      <c r="B60" s="30">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="C60" s="7">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="D60" s="30">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="E60" s="30">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="F60" s="31">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="G60" s="30">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="H60" s="7">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="I60" s="31">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="J60" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>Variable Index</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>A55</f>
+        <v>6.6368572440094908</v>
+      </c>
+      <c r="B62">
+        <f>B55</f>
+        <v>4.2684848930633397</v>
+      </c>
+      <c r="C62" s="7">
+        <f>H55</f>
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <f>D55</f>
+        <v>-0.81749042528060478</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62:G62" si="21">E55</f>
+        <v>7.5509719301266607</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="22">
+        <f>C55</f>
+        <v>4.3011718867884525</v>
+      </c>
+      <c r="I62" s="2">
+        <f>I55</f>
+        <v>1</v>
+      </c>
+      <c r="J62" s="2">
+        <f>J55</f>
+        <v>-6.7655320267373291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" ref="A63:B63" si="22">A56</f>
+        <v>-4.517045250350054</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="22"/>
+        <v>-4.2314153758942634</v>
+      </c>
+      <c r="C63" s="7">
+        <f t="shared" ref="C63:C67" si="23">H56</f>
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ref="D63:G63" si="24">D56</f>
+        <v>1.8051918764465213</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="24"/>
+        <v>-4.3359668043161737</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="H63" s="22">
+        <f t="shared" ref="H63:H67" si="25">C56</f>
+        <v>3.9851019627827817</v>
+      </c>
+      <c r="I63" s="2">
+        <f t="shared" ref="I63:J63" si="26">I56</f>
+        <v>1</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" si="26"/>
+        <v>-4.662088695877074</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" ref="A64:B64" si="27">A57</f>
+        <v>-5.1110514773088527</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="27"/>
+        <v>2.4551596093757908</v>
+      </c>
+      <c r="C64" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ref="D64:G64" si="28">D57</f>
+        <v>0.40601360805803743</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="28"/>
+        <v>5.3381808976006724</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="22">
+        <f t="shared" si="25"/>
+        <v>7.8288952831615468</v>
+      </c>
+      <c r="I64" s="2">
+        <f t="shared" ref="I64:J64" si="29">I57</f>
+        <v>1</v>
+      </c>
+      <c r="J64" s="2">
+        <f t="shared" si="29"/>
+        <v>10.255891424421755</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <f t="shared" ref="A65:B65" si="30">A58</f>
+        <v>2.9653120679234917</v>
+      </c>
+      <c r="B65" s="10">
+        <f t="shared" si="30"/>
+        <v>-4.642624851410762</v>
+      </c>
+      <c r="C65" s="29">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="D65" s="10">
+        <f t="shared" ref="D65:G65" si="31">D58</f>
+        <v>1.4158603267477936</v>
+      </c>
+      <c r="E65" s="10">
+        <f t="shared" si="31"/>
+        <v>-4.8235859417943709</v>
+      </c>
+      <c r="F65" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="29">
+        <f t="shared" si="25"/>
+        <v>3.8471070420251472</v>
+      </c>
+      <c r="I65" s="11">
+        <f t="shared" ref="I65:J65" si="32">I58</f>
+        <v>1</v>
+      </c>
+      <c r="J65" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" ref="A66:B66" si="33">A59</f>
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:G66" si="34">D59</f>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="22">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" ref="I66:J66" si="35">I59</f>
+        <v>1</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" ref="A67:B67" si="36">A60</f>
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="C67" s="7">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:G67" si="37">D60</f>
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
+      <c r="H67" s="22">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" ref="I67:J67" si="38">I60</f>
+        <v>7</v>
+      </c>
+      <c r="J67" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>Variable Index</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>A62</f>
+        <v>6.6368572440094908</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ref="B71:J71" si="39">B62</f>
+        <v>4.2684848930633397</v>
+      </c>
+      <c r="C71" s="41">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="39"/>
+        <v>-0.81749042528060478</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="39"/>
+        <v>7.5509719301266607</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="39"/>
+        <v>4.3011718867884525</v>
+      </c>
+      <c r="I71" s="37">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" si="39"/>
+        <v>-6.7655320267373291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" ref="A72:J72" si="40">A63</f>
+        <v>-4.517045250350054</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="40"/>
+        <v>-4.2314153758942634</v>
+      </c>
+      <c r="C72" s="41">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="40"/>
+        <v>1.8051918764465213</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="40"/>
+        <v>-4.3359668043161737</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="40"/>
+        <v>3.9851019627827817</v>
+      </c>
+      <c r="I72" s="37">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="J72" s="2">
+        <f t="shared" si="40"/>
+        <v>-4.662088695877074</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" ref="A73:J73" si="41">A64</f>
+        <v>-5.1110514773088527</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="41"/>
+        <v>2.4551596093757908</v>
+      </c>
+      <c r="C73" s="41">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="41"/>
+        <v>0.40601360805803743</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="41"/>
+        <v>5.3381808976006724</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="41"/>
+        <v>7.8288952831615468</v>
+      </c>
+      <c r="I73" s="37">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="J73" s="2">
+        <f t="shared" si="41"/>
+        <v>10.255891424421755</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <f t="shared" ref="A74:J74" si="42">A65</f>
+        <v>2.9653120679234917</v>
+      </c>
+      <c r="B74" s="10">
+        <f t="shared" si="42"/>
+        <v>-4.642624851410762</v>
+      </c>
+      <c r="C74" s="42">
+        <v>1</v>
+      </c>
+      <c r="D74" s="10">
+        <f t="shared" si="42"/>
+        <v>1.4158603267477936</v>
+      </c>
+      <c r="E74" s="10">
+        <f t="shared" si="42"/>
+        <v>-4.8235859417943709</v>
+      </c>
+      <c r="F74" s="11">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="10">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="10">
+        <f t="shared" si="42"/>
+        <v>3.8471070420251472</v>
+      </c>
+      <c r="I74" s="38">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="J74" s="11">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" ref="A75:J75" si="43">A66</f>
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="C75" s="41">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="37">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="J75" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="30">
+        <f t="shared" ref="A76:J76" si="44">A67</f>
+        <v>0</v>
+      </c>
+      <c r="B76" s="30">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="C76" s="30">
+        <f t="shared" si="44"/>
+        <v>8</v>
+      </c>
+      <c r="D76" s="30">
+        <f t="shared" si="44"/>
+        <v>3</v>
+      </c>
+      <c r="E76" s="30">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="F76" s="31">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="G76" s="30">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="H76" s="30">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="I76" s="31">
+        <f t="shared" si="44"/>
+        <v>7</v>
+      </c>
+      <c r="J76" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>Variable Index</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f>A71</f>
+        <v>6.6368572440094908</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ref="B80:E80" si="45">B71</f>
+        <v>4.2684848930633397</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="45"/>
+        <v>-0.81749042528060478</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="45"/>
+        <v>7.5509719301266607</v>
+      </c>
+      <c r="F80" s="2">
+        <f>I71</f>
+        <v>1</v>
+      </c>
+      <c r="G80" s="2">
+        <f>J71</f>
+        <v>-6.7655320267373291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" ref="A81:E81" si="46">A72</f>
+        <v>-4.517045250350054</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="46"/>
+        <v>-4.2314153758942634</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="46"/>
+        <v>1.8051918764465213</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="46"/>
+        <v>-4.3359668043161737</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" ref="F81:F82" si="47">I72</f>
+        <v>1</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" ref="G81:G82" si="48">J72</f>
+        <v>-4.662088695877074</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" ref="A82:E82" si="49">A73</f>
+        <v>-5.1110514773088527</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="49"/>
+        <v>2.4551596093757908</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="49"/>
+        <v>0.40601360805803743</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="49"/>
+        <v>5.3381808976006724</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="48"/>
+        <v>10.255891424421755</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <f>A75</f>
+        <v>0</v>
+      </c>
+      <c r="B83" s="1">
+        <f>B75</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <f>C75</f>
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <f>D75</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <f>E75</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <f>I75</f>
+        <v>1</v>
+      </c>
+      <c r="G83" s="3">
+        <f>J75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="30">
+        <f t="shared" ref="A87:I87" si="50">A76</f>
+        <v>0</v>
+      </c>
+      <c r="B87" s="30">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="C87" s="30">
+        <f t="shared" si="50"/>
+        <v>8</v>
+      </c>
+      <c r="D87" s="30">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+      <c r="E87" s="30">
+        <f t="shared" si="50"/>
+        <v>4</v>
+      </c>
+      <c r="F87" s="30">
+        <f t="shared" si="50"/>
+        <v>5</v>
+      </c>
+      <c r="G87" s="30">
+        <f t="shared" si="50"/>
+        <v>6</v>
+      </c>
+      <c r="H87" s="30">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I87" s="30">
+        <f t="shared" si="50"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="15">
+        <f t="shared" ref="A89:G94" si="51">A71</f>
+        <v>6.6368572440094908</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" si="51"/>
+        <v>4.2684848930633397</v>
+      </c>
+      <c r="C89" s="7">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="51"/>
+        <v>-0.81749042528060478</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="51"/>
+        <v>7.5509719301266607</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2">
+        <f t="shared" ref="I89:J94" si="52">I71</f>
+        <v>1</v>
+      </c>
+      <c r="J89" s="17">
+        <f t="shared" si="52"/>
+        <v>-6.7655320267373291</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="15">
+        <f t="shared" si="51"/>
+        <v>-4.517045250350054</v>
+      </c>
+      <c r="B90" s="15">
+        <f t="shared" si="51"/>
+        <v>-4.2314153758942634</v>
+      </c>
+      <c r="C90" s="7">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="15">
+        <f t="shared" si="51"/>
+        <v>1.8051918764465213</v>
+      </c>
+      <c r="E90" s="15">
+        <f t="shared" si="51"/>
+        <v>-4.3359668043161737</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="J90" s="17">
+        <f t="shared" si="52"/>
+        <v>-4.662088695877074</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="15">
+        <f t="shared" si="51"/>
+        <v>-5.1110514773088527</v>
+      </c>
+      <c r="B91" s="15">
+        <f t="shared" si="51"/>
+        <v>2.4551596093757908</v>
+      </c>
+      <c r="C91" s="7">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="D91" s="15">
+        <f t="shared" si="51"/>
+        <v>0.40601360805803743</v>
+      </c>
+      <c r="E91" s="15">
+        <f t="shared" si="51"/>
+        <v>5.3381808976006724</v>
+      </c>
+      <c r="F91" s="40">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" s="2">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="J91" s="43">
+        <f t="shared" si="52"/>
+        <v>10.255891424421755</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="36">
+        <f t="shared" si="51"/>
+        <v>2.9653120679234917</v>
+      </c>
+      <c r="B92" s="36">
+        <f t="shared" si="51"/>
+        <v>-4.642624851410762</v>
+      </c>
+      <c r="C92" s="29">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="36">
+        <f t="shared" si="51"/>
+        <v>1.4158603267477936</v>
+      </c>
+      <c r="E92" s="36">
+        <f t="shared" si="51"/>
+        <v>-4.8235859417943709</v>
+      </c>
+      <c r="F92" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="10">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="10">
+        <v>0</v>
+      </c>
+      <c r="I92" s="26">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="J92" s="11">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="C93" s="7">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f>H75</f>
+        <v>0</v>
+      </c>
+      <c r="I93" s="2">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="J93" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="30">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="B94" s="30">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="C94" s="7">
+        <f t="shared" si="51"/>
+        <v>8</v>
+      </c>
+      <c r="D94" s="30">
+        <f t="shared" si="51"/>
+        <v>3</v>
+      </c>
+      <c r="E94" s="30">
+        <f t="shared" si="51"/>
+        <v>4</v>
+      </c>
+      <c r="F94" s="31">
+        <f t="shared" si="51"/>
+        <v>5</v>
+      </c>
+      <c r="G94" s="30">
+        <f t="shared" si="51"/>
+        <v>6</v>
+      </c>
+      <c r="H94" s="30">
+        <f>H76</f>
+        <v>2</v>
+      </c>
+      <c r="I94" s="31">
+        <f t="shared" si="52"/>
+        <v>7</v>
+      </c>
+      <c r="J94" s="2" t="str">
+        <f t="shared" si="52"/>
+        <v>Variable Index</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f>A89</f>
+        <v>6.6368572440094908</v>
+      </c>
+      <c r="B97">
+        <f>B89</f>
+        <v>4.2684848930633397</v>
+      </c>
+      <c r="C97">
+        <f>I89</f>
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <f>D89</f>
+        <v>-0.81749042528060478</v>
+      </c>
+      <c r="E97">
+        <f>E89</f>
+        <v>7.5509719301266607</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" ref="F97:H97" si="53">F89</f>
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <f>J89</f>
+        <v>-6.7655320267373291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" ref="A98:B98" si="54">A90</f>
+        <v>-4.517045250350054</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="54"/>
+        <v>-4.2314153758942634</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ref="C98:C100" si="55">I90</f>
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ref="D98:E98" si="56">D90</f>
+        <v>1.8051918764465213</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="56"/>
+        <v>-4.3359668043161737</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" ref="F98:H98" si="57">F90</f>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="2">
+        <f t="shared" ref="I98:I99" si="58">J90</f>
+        <v>-4.662088695877074</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" ref="A99:B99" si="59">A91</f>
+        <v>-5.1110514773088527</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="59"/>
+        <v>2.4551596093757908</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ref="D99:E99" si="60">D91</f>
+        <v>0.40601360805803743</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="60"/>
+        <v>5.3381808976006724</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" ref="F99:H99" si="61">F91</f>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="I99" s="2">
+        <f t="shared" si="58"/>
+        <v>10.255891424421755</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <f t="shared" ref="A100:B100" si="62">A92</f>
+        <v>2.9653120679234917</v>
+      </c>
+      <c r="B100" s="1">
+        <f t="shared" si="62"/>
+        <v>-4.642624851410762</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" ref="D100:E100" si="63">D92</f>
+        <v>1.4158603267477936</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" si="63"/>
+        <v>-4.8235859417943709</v>
+      </c>
+      <c r="F100" s="3">
+        <f t="shared" ref="F100:H100" si="64">F92</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="30">
+        <f t="shared" ref="A101:B101" si="65">A94</f>
+        <v>0</v>
+      </c>
+      <c r="B101" s="30">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="C101" s="30">
+        <f>I94</f>
+        <v>7</v>
+      </c>
+      <c r="D101" s="30">
+        <f t="shared" ref="D101:E101" si="66">D94</f>
+        <v>3</v>
+      </c>
+      <c r="E101" s="30">
+        <f t="shared" si="66"/>
+        <v>4</v>
+      </c>
+      <c r="F101" s="31">
+        <f t="shared" ref="F101:H101" si="67">F94</f>
+        <v>5</v>
+      </c>
+      <c r="G101" s="30">
+        <f t="shared" si="67"/>
+        <v>6</v>
+      </c>
+      <c r="H101" s="30">
+        <f t="shared" si="67"/>
+        <v>2</v>
+      </c>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f>A97</f>
+        <v>6.6368572440094908</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ref="B105:E105" si="68">B97</f>
+        <v>4.2684848930633397</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="68"/>
+        <v>-0.81749042528060478</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="68"/>
+        <v>7.5509719301266607</v>
+      </c>
+      <c r="F105" s="2">
+        <f>I97</f>
+        <v>-6.7655320267373291</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" ref="A106:E106" si="69">A98</f>
+        <v>-4.517045250350054</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="69"/>
+        <v>-4.2314153758942634</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="69"/>
+        <v>1.8051918764465213</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="69"/>
+        <v>-4.3359668043161737</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" ref="F106:F108" si="70">I98</f>
+        <v>-4.662088695877074</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" ref="A107:E107" si="71">A99</f>
+        <v>-5.1110514773088527</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="71"/>
+        <v>2.4551596093757908</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="71"/>
+        <v>0.40601360805803743</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="71"/>
+        <v>5.3381808976006724</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="70"/>
+        <v>10.255891424421755</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <f t="shared" ref="A108:E108" si="72">A100</f>
+        <v>2.9653120679234917</v>
+      </c>
+      <c r="B108" s="1">
+        <f t="shared" si="72"/>
+        <v>-4.642624851410762</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="72"/>
+        <v>1.4158603267477936</v>
+      </c>
+      <c r="E108" s="1">
+        <f t="shared" si="72"/>
+        <v>-4.8235859417943709</v>
+      </c>
+      <c r="F108" s="3">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="30">
+        <f>A101</f>
+        <v>0</v>
+      </c>
+      <c r="B112" s="30">
+        <f t="shared" ref="B112:H112" si="73">B101</f>
+        <v>1</v>
+      </c>
+      <c r="C112" s="30">
+        <f t="shared" si="73"/>
+        <v>7</v>
+      </c>
+      <c r="D112" s="30">
+        <f t="shared" si="73"/>
+        <v>3</v>
+      </c>
+      <c r="E112" s="30">
+        <f t="shared" si="73"/>
+        <v>4</v>
+      </c>
+      <c r="F112" s="30">
+        <f t="shared" si="73"/>
+        <v>5</v>
+      </c>
+      <c r="G112" s="30">
+        <f t="shared" si="73"/>
+        <v>6</v>
+      </c>
+      <c r="H112" s="30">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+      <c r="I112" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H13"/>
+      <selection activeCell="J12" sqref="J12:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,1251 +6493,1251 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*20-7</f>
-        <v>3.4979883738792772</v>
+        <v>0.73356164311027161</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:L16" ca="1" si="0">RAND()*20-7</f>
-        <v>9.7798921257514131</v>
+        <v>-5.17755260936468</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2698814992697525</v>
+        <v>2.8375326157229175</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4540095039793965</v>
+        <v>-6.7982068974110952</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0951060670893256</v>
+        <v>0.53944652860738085</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>12.516150756226985</v>
+        <v>5.7800399007789416</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3706436558285517</v>
+        <v>1.8078044628348877</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3804364202903514</v>
+        <v>4.6998569628988474</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1281397418232242</v>
+        <v>3.8728818715061255</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2620846613820476</v>
+        <v>-5.5404441027594036</v>
       </c>
       <c r="K1">
         <f ca="1">RAND()*20-7</f>
-        <v>-6.3244383366856853</v>
+        <v>4.2564934505840952</v>
       </c>
       <c r="L1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5830901983214893</v>
+        <v>11.823675678559312</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:L25" ca="1" si="1">RAND()*20-7</f>
-        <v>-6.7547774641479794</v>
+        <v>6.0890246333965194</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.55416761638548806</v>
+        <v>6.8168396725924243</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7209450785837888</v>
+        <v>1.1264626693927884</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4957178139875875</v>
+        <v>-3.4604348108916088</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5858079412437682</v>
+        <v>6.5517113313594617</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5846095925928179</v>
+        <v>-3.2823722692252582</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1023816652927501</v>
+        <v>-2.6097938053787892</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0028151005989443</v>
+        <v>9.4546226706092682</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7315864441301763</v>
+        <v>-4.5345591226421949</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6525643288047753</v>
+        <v>-3.6786539979475545</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.308519339824926</v>
+        <v>2.1733186337603705</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8043336665685228</v>
+        <v>10.804962572237713</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.89624681524868244</v>
+        <v>8.8760146372238609</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.959397171270755</v>
+        <v>1.1221896737888635</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7032557632324981</v>
+        <v>9.3414969599670705</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0359878066271975</v>
+        <v>12.946720657004398</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.96618574103942478</v>
+        <v>2.4795474194113787</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3632385882177722</v>
+        <v>-0.3675222718100688</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4241372984593568</v>
+        <v>12.427211741806353</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67102727693150399</v>
+        <v>-6.3841175332007554</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1650450894140878</v>
+        <v>-2.5884276218308049</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.6553786609504391</v>
+        <v>3.1304595128153032</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>11.824518186800134</v>
+        <v>-0.26698735775166949</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.518581586561444</v>
+        <v>5.9669872997273998</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8185355206771394</v>
+        <v>8.0225802334729881</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5692572966975007</v>
+        <v>-5.6173749076998956</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.823022518429628</v>
+        <v>8.2236699753759801</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8743858535911908</v>
+        <v>3.3643869510356712</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.17568840534202046</v>
+        <v>5.1971313347675085</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.4980880667894407</v>
+        <v>7.5183016029037937</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1522631869044453</v>
+        <v>-4.2430556133774315</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7685207697507925</v>
+        <v>-0.98832030305175067</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.192701698110401</v>
+        <v>11.249862508203027</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0059096976768078</v>
+        <v>-4.8194093000970666</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.358314686976998</v>
+        <v>11.860316053407058</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5386497172539992</v>
+        <v>4.6876147470613638</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.665168865637675</v>
+        <v>6.4108314307854677</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.454185253396414</v>
+        <v>-1.9214420854404883</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8733977053146837</v>
+        <v>12.505235505110697</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.2984786762727829</v>
+        <v>12.929821358499641</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0639052369371793</v>
+        <v>2.7452244767772598</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.46841798936569</v>
+        <v>1.2677172052954546</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.82112071527837927</v>
+        <v>7.5439105448411787</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7497136285503245</v>
+        <v>-0.8180515123289922</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.153012861165557</v>
+        <v>-2.932335036254262</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4286595899382863</v>
+        <v>-0.95908932486793752</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9306645049363613</v>
+        <v>0.84917461367858671</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.752239677847893</v>
+        <v>10.414369325634215</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0264226889190979</v>
+        <v>9.5427609208385569</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>12.62248453902874</v>
+        <v>11.619546292336185</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6189922635348957</v>
+        <v>-1.826424965629144</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0068792808890201</v>
+        <v>-2.4047910022870855</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7368405528257203</v>
+        <v>6.361418450348566</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8019745657580213</v>
+        <v>-4.7545756233790453</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>10.151618504340934</v>
+        <v>2.1755983410321189</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2871491462133342</v>
+        <v>11.778281453328841</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2826678962902154</v>
+        <v>8.223868847347795</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>11.557999575111666</v>
+        <v>10.856467594864675</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9866019192867288</v>
+        <v>2.171411131044449</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12822367551073643</v>
+        <v>2.5151777072379176</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8326749292097011</v>
+        <v>-4.4754702487125124</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>11.162682089129106</v>
+        <v>8.0466479320683284</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6995489782148923</v>
+        <v>2.4468265410962093</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>11.312264279289568</v>
+        <v>9.5833017172970827</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7936713520552185</v>
+        <v>-1.4265695444040425</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3543632363215039</v>
+        <v>10.434831793807554</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6285045974799992</v>
+        <v>-6.4786832959937284</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6436725582142788</v>
+        <v>2.7767229171634522</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.717566599332784</v>
+        <v>7.4092987612001995</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8120643089040254</v>
+        <v>1.7820604796548363</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>11.520358863804944</v>
+        <v>-6.4114787678175293</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8669095990155569</v>
+        <v>-4.9357076636390449</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>10.953876481071593</v>
+        <v>6.1486152507998</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8937552047377997</v>
+        <v>3.6315561948012913</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80925200543965481</v>
+        <v>-4.7056160586391638</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0804422839254624</v>
+        <v>6.8907960301369542</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6361396305958387</v>
+        <v>6.3611062357480233</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.232664561182963</v>
+        <v>9.9013366602701325</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7668811673688101</v>
+        <v>7.2797043001572632</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7477339297063104</v>
+        <v>5.1033923735379183E-2</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76181107397611481</v>
+        <v>7.4033374618675687</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0221286379097982</v>
+        <v>8.6423744852614597</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5648525887199796</v>
+        <v>12.208512574372655</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6727290909411821</v>
+        <v>2.102797668606641</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7155173936585033</v>
+        <v>-6.6963191262717423</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>11.689857006515826</v>
+        <v>9.7213793098366885</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.502762100806466</v>
+        <v>9.7952547642360663</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5094755721707553</v>
+        <v>-0.33458767282864166</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2392562426350935</v>
+        <v>3.6219041564193546</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9735047293151453</v>
+        <v>5.7039151351010187</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4039715532131467</v>
+        <v>-0.86965336862267417</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0871202166618872</v>
+        <v>2.6887273246398919</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0682000330961134</v>
+        <v>5.2885461957480562</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4641222796550846</v>
+        <v>-2.9545247269720143</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7283613618361926</v>
+        <v>3.3288593635122581</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.4671424427669839</v>
+        <v>-0.68619845601666718</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>11.432032054641152</v>
+        <v>-3.9299699498920964</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.320572372258038</v>
+        <v>10.614068572742571</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.9284122492296758</v>
+        <v>-4.4744699052313379</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>12.400366240604164</v>
+        <v>-4.1568560633155176</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2725222847397628</v>
+        <v>0.13899119021039041</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4547488850415498</v>
+        <v>12.815539471315144</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9320636130032565</v>
+        <v>8.2921975782894055</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7760583072763296</v>
+        <v>-6.5013500954597401</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1547298595937825</v>
+        <v>2.7839516158643285</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6654433248526743</v>
+        <v>-3.4013453192358627</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8051397378880454</v>
+        <v>11.81645483576062</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4311305070838189</v>
+        <v>-6.7362011380327278</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.934417101299422</v>
+        <v>1.731861311280678</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2684964835032657</v>
+        <v>12.339621986238662</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0602093119669123</v>
+        <v>-2.5938298105592903</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6848581227000459</v>
+        <v>2.3746255855015121</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1817593625543701</v>
+        <v>9.1058275200596981</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7771060940845551</v>
+        <v>4.0389966634933057</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6673856529847839</v>
+        <v>-6.230429367282758</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>10.528833641243533</v>
+        <v>9.234782735310322</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8099354568835828</v>
+        <v>9.1119172445908276</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5668111244925753</v>
+        <v>1.0801944673309567</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18500487468880511</v>
+        <v>-0.11652787210026538</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6874723972972276</v>
+        <v>-5.3176478793640012</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.81153521574667131</v>
+        <v>12.116816902600103</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2018529098120343</v>
+        <v>-1.6161321379647946</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.3377810616066261</v>
+        <v>-4.4580634417390197</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.58328107305462051</v>
+        <v>7.4397533705373782</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8733307948897258</v>
+        <v>12.95404675362547</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7763964472171945</v>
+        <v>9.9061244739003627</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.490892598424276</v>
+        <v>11.02450884441496</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3904000499119498</v>
+        <v>0.27766851258307135</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11227775829241349</v>
+        <v>11.345547365871401</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6039372542767616</v>
+        <v>5.9265222183712822</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5682845770818954</v>
+        <v>-6.8265339962162113</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4296273522781044</v>
+        <v>8.4137161667435194</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9078023845452172</v>
+        <v>-5.1642290391358401</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5441269352952744</v>
+        <v>11.294931326525003</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9045455319797622</v>
+        <v>2.1359454259484334</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5272452238662773</v>
+        <v>10.36815314328231</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.111222963167589</v>
+        <v>9.2832892146773851</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1805803840095574</v>
+        <v>3.9130236050130591</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3423108854542658</v>
+        <v>7.0296933085111331</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.324400425549765</v>
+        <v>12.631900464637305</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93109760601637248</v>
+        <v>7.6100748311017536</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8360011696928549</v>
+        <v>7.8828591159305841</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8215422795539888</v>
+        <v>8.8825047050858732</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7837146916781172</v>
+        <v>3.9680223655290341</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3750102330397276</v>
+        <v>9.9168792438942539</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.124920369619792</v>
+        <v>11.343623713337173</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.2504528794914105</v>
+        <v>0.93548342542016449</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7345489493029618</v>
+        <v>11.788927320753398</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5528058650054035</v>
+        <v>0.28990156788714039</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7484175330582694</v>
+        <v>11.696495605110229</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2334652905730419</v>
+        <v>1.1969414974848132</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8844332437686901</v>
+        <v>-0.84519356524564415</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.33899892360634</v>
+        <v>-3.2372178297540093</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5321358303377242</v>
+        <v>8.5205174751252386</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6342783696283085</v>
+        <v>-4.8181564281849685</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8161412577825757</v>
+        <v>7.659369996809847</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2040890567203366</v>
+        <v>-2.0232799526894789</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3212179152072352</v>
+        <v>4.3899621729679872</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4488733356401191</v>
+        <v>-5.0351234132681348</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.0250583873437105</v>
+        <v>12.843894580572798</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.878788731840654</v>
+        <v>4.7845256422487203</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1524645717426942</v>
+        <v>10.510722568029333</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9616570458495026</v>
+        <v>0.6817851772352963</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>10.517574492750093</v>
+        <v>2.7258662373655458</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>12.207970938300015</v>
+        <v>0.75399128127000736</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2549323199726423</v>
+        <v>-0.43319769724425239</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>11.879886167622331</v>
+        <v>6.3907394507044799</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1212229352635639</v>
+        <v>1.2502822056910965</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>11.118165953780963</v>
+        <v>6.8765914995376214</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0408362291417905</v>
+        <v>3.3691103894075436</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3136677017987974</v>
+        <v>1.6674753880782305</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>10.363609520910558</v>
+        <v>5.5706417555807839</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9582758214512204</v>
+        <v>12.63455614949909</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7975668692336022</v>
+        <v>5.5692368430933108</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9344691517724719</v>
+        <v>1.0842871867726611</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.739884443395816</v>
+        <v>-2.7688541344768929</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2851412923265642</v>
+        <v>-2.8844680958722906</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0490966070412107</v>
+        <v>3.3537199168594753</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5372895964631503</v>
+        <v>1.2686380893813123</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.90025460910049304</v>
+        <v>10.801203247328701</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1631389897886582</v>
+        <v>-1.1053099503868378</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0568613559835214</v>
+        <v>-4.5085357201480445</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.6008427316194718</v>
+        <v>-3.6115837981992631</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4358379681271796</v>
+        <v>1.7626366473582635</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.146270952392543</v>
+        <v>10.566845367653098</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7084216979050915</v>
+        <v>4.6168310265901589</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.8868523758326763</v>
+        <v>5.3647519109389332</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0883525007903563</v>
+        <v>7.7424402965731502</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9154662690376405</v>
+        <v>-3.3899928162493991</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.523044631191242</v>
+        <v>6.9203825639999916</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5480140869714152</v>
+        <v>-5.8748686987190357</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.6633224497997059</v>
+        <v>-4.3691882803239643</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.0342981185440774</v>
+        <v>1.3128746487126612</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1198109282605913</v>
+        <v>5.549866123139795</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>11.001739500833441</v>
+        <v>-2.6798342549139713</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78972564413701551</v>
+        <v>-6.959074300399287</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.9156858400383459</v>
+        <v>-3.1213072535777657</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.6288176301277613</v>
+        <v>12.135524260502098</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4771641445661885</v>
+        <v>4.292516861267007</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.9080853564096389</v>
+        <v>10.45412031792744</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4785487180436494</v>
+        <v>10.361140326490819</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1658801108758805</v>
+        <v>2.6223336347017696</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>11.173411660806948</v>
+        <v>-2.2431886895193518</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>11.549780403327979</v>
+        <v>10.848846292385304</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4024089108360558</v>
+        <v>10.636025309268653</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>12.149488572061841</v>
+        <v>-0.96315500471397009</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4165081941547371</v>
+        <v>11.671236240898629</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.9888497529942284</v>
+        <v>1.445660042507301</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1917106447257222</v>
+        <v>3.5601114727849659</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14761407774908264</v>
+        <v>1.8405206907720739E-2</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3861347526664254</v>
+        <v>6.7958905819086901</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.2495735307100708</v>
+        <v>-4.4810973400729956</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>10.583196401377382</v>
+        <v>3.0844564650653439</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1575938121137384</v>
+        <v>-2.6729638384857761</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2544294821601696</v>
+        <v>-2.9875035258415661</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4262339808076412</v>
+        <v>2.2805934052703805</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0945679355230986</v>
+        <v>-4.2929884051563381</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>12.098093884540994</v>
+        <v>-1.6379582072120957</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>12.600800213933105</v>
+        <v>0.34598222605412587</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8153865822657025</v>
+        <v>1.3808781152037337</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.1583008897564397E-2</v>
+        <v>-5.1367925884407271</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.91172802604415</v>
+        <v>3.3909305134305452</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>12.289464445588234</v>
+        <v>11.847608168650869</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.132881949841325</v>
+        <v>0.2751267955808796</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2469469455706204</v>
+        <v>-0.84720741195413041</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1624331380583754</v>
+        <v>-5.0797880139273381</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9879987490195248</v>
+        <v>4.8443797131730975</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1660018147379336</v>
+        <v>3.2589634388978794</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2317851535217255</v>
+        <v>10.70991622051276</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>12.586489196324489</v>
+        <v>0.58333536126334806</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3819107534179373E-2</v>
+        <v>5.5024197850584038</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2364536834686772</v>
+        <v>-6.9334890357837686E-2</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8145899952843507</v>
+        <v>2.7136693425048399</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>11.772659495047851</v>
+        <v>-5.9095700888791018</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.0675149534456918</v>
+        <v>6.4712153858775014</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3532634475437924</v>
+        <v>-2.5860370452653996</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2043034246482538</v>
+        <v>3.3262881261015202</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.37425932636057624</v>
+        <v>-3.1130708528476596</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>10.812606807707486</v>
+        <v>9.7586813593796506</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.605419782662846</v>
+        <v>10.807211689431814</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.7583355846707693</v>
+        <v>1.0226908757182294</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4074274794052712</v>
+        <v>1.9887229821753394E-3</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.4817796732696014</v>
+        <v>-6.8406186332787771</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2292797125419526</v>
+        <v>-3.3971698395234422</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36509300192923</v>
+        <v>0.70172957718459283</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8713412804195908</v>
+        <v>9.1417312088756368</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.62444980099141834</v>
+        <v>11.298948699365251</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.584673828602071</v>
+        <v>0.97896083645147236</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.2142315837119888</v>
+        <v>3.3977850636632887</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6398135738481114</v>
+        <v>9.8985478723248157</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.4689595965151927</v>
+        <v>11.143829668106854</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="1"/>
-        <v>12.60709931117627</v>
+        <v>6.7337536838518837</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.14694004141475414</v>
+        <v>-1.2575114026221028</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1033473253229431</v>
+        <v>-5.5964947028995997</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3961488328785387</v>
+        <v>1.1959059683900932</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2907887999476273</v>
+        <v>1.3513587068600454</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>10.890781885290654</v>
+        <v>12.755584323195766</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1522575622657207</v>
+        <v>-6.9559625458010963</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.4864997365155501</v>
+        <v>4.7857639169923711</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7112272417666912</v>
+        <v>-2.8143644028472252</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8623882054859955</v>
+        <v>-3.4308608976896031</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.91771194846021853</v>
+        <v>12.217593220960129</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3966100458530377</v>
+        <v>8.7794341563459355</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32045051955239501</v>
+        <v>7.5511945150023774</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.9881544262379283</v>
+        <v>-6.0281477743325933</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5237280463881024</v>
+        <v>10.337065923119177</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.3666795191916385</v>
+        <v>3.6244361460298222</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6456922419272519</v>
+        <v>8.5835575693808579</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4215647107315945</v>
+        <v>-6.7739379886380995</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>10.216701693211579</v>
+        <v>-5.4759375208318293</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>10.357002065497916</v>
+        <v>-0.13090829868292619</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2014795643320237</v>
+        <v>8.0195936729578445</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>10.147266543179335</v>
+        <v>3.4701850441470832</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>7.634989327740314</v>
+        <v>-5.3211260971433321</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0090957188284548</v>
+        <v>-5.8736908605758931</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.7038760994372755</v>
+        <v>-5.6658344388002506</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8951840089265151</v>
+        <v>8.2464163560400774</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0437023438280164</v>
+        <v>5.4971819924407672</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.36541010993753176</v>
+        <v>-0.53887777044531671</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.1798556488364627</v>
+        <v>9.2324242381227783</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5685593518989824</v>
+        <v>10.855893601565207</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5404481332174047</v>
+        <v>9.933070919896835</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4472407944834034</v>
+        <v>-6.9864704240904034</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.73587744597719329</v>
+        <v>4.9062287901789112</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9976988111504941</v>
+        <v>11.223193860051836</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2859951671791876</v>
+        <v>-5.3444317565972632</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0170134790415073</v>
+        <v>7.4269042225807063</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4278285178725358</v>
+        <v>-6.2283176931837074</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/MutableTableauTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/MutableTableauTest.xlsx
@@ -1972,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
@@ -6493,1251 +6493,1251 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*20-7</f>
-        <v>0.73356164311027161</v>
+        <v>3.3893021588219074</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:L16" ca="1" si="0">RAND()*20-7</f>
-        <v>-5.17755260936468</v>
+        <v>8.3754435805285343</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8375326157229175</v>
+        <v>-1.3658990630572125</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7982068974110952</v>
+        <v>10.236937767531302</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53944652860738085</v>
+        <v>-4.079829216078652</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7800399007789416</v>
+        <v>11.12704872189251</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8078044628348877</v>
+        <v>2.6629599110952462</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6998569628988474</v>
+        <v>2.0947894770419921</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8728818715061255</v>
+        <v>7.4649610740869896</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5404441027594036</v>
+        <v>6.2695107019678904</v>
       </c>
       <c r="K1">
         <f ca="1">RAND()*20-7</f>
-        <v>4.2564934505840952</v>
+        <v>7.9326468283626674</v>
       </c>
       <c r="L1">
         <f t="shared" ca="1" si="0"/>
-        <v>11.823675678559312</v>
+        <v>-1.9247494635710121</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:L25" ca="1" si="1">RAND()*20-7</f>
-        <v>6.0890246333965194</v>
+        <v>8.5392035854545529</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8168396725924243</v>
+        <v>12.175581434380561</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1264626693927884</v>
+        <v>-6.5495203052702742</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4604348108916088</v>
+        <v>1.2904391656941705</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5517113313594617</v>
+        <v>-1.6629816198984138</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2823722692252582</v>
+        <v>4.8795448231122514</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6097938053787892</v>
+        <v>-2.4552855254663317</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4546226706092682</v>
+        <v>5.3063956035192863</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5345591226421949</v>
+        <v>12.68066330479531</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6786539979475545</v>
+        <v>8.3858382213982843</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1733186337603705</v>
+        <v>2.4430926579652326</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>10.804962572237713</v>
+        <v>12.629707642871995</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8760146372238609</v>
+        <v>-0.48253611843589717</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1221896737888635</v>
+        <v>3.6632353056720497</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3414969599670705</v>
+        <v>4.1415594690412885</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>12.946720657004398</v>
+        <v>3.3360759110687077</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4795474194113787</v>
+        <v>-5.9197246490197362</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.3675222718100688</v>
+        <v>10.275984210231947</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>12.427211741806353</v>
+        <v>11.134190476519969</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.3841175332007554</v>
+        <v>11.27993518755499</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5884276218308049</v>
+        <v>2.8298423372294295</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1304595128153032</v>
+        <v>2.7357727418474518</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.26698735775166949</v>
+        <v>5.3342002359420633</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9669872997273998</v>
+        <v>9.315197718627811</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0225802334729881</v>
+        <v>12.67745095275535</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.6173749076998956</v>
+        <v>-3.8360851897711239</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2236699753759801</v>
+        <v>12.157044921351854</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3643869510356712</v>
+        <v>-5.8338170452488001</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1971313347675085</v>
+        <v>-6.8935882954750598</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5183016029037937</v>
+        <v>-1.1571605377778091</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2430556133774315</v>
+        <v>-0.51955812110450417</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.98832030305175067</v>
+        <v>0.93599684077737066</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.249862508203027</v>
+        <v>11.307172374483972</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8194093000970666</v>
+        <v>12.476589968111742</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.860316053407058</v>
+        <v>-2.9921165780312924</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6876147470613638</v>
+        <v>0.18695636844186136</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4108314307854677</v>
+        <v>11.93896250322145</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9214420854404883</v>
+        <v>5.668465504581885</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.505235505110697</v>
+        <v>-5.0987125195584131</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.929821358499641</v>
+        <v>0.45780430140726303</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7452244767772598</v>
+        <v>8.3543408746228227</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2677172052954546</v>
+        <v>8.0836387226301856</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5439105448411787</v>
+        <v>11.897353435730825</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.8180515123289922</v>
+        <v>3.4407472572066151</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.932335036254262</v>
+        <v>12.193643291295889</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.95908932486793752</v>
+        <v>0.51077568892898739</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84917461367858671</v>
+        <v>-4.3552779634169818</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>10.414369325634215</v>
+        <v>10.939735674781542</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5427609208385569</v>
+        <v>11.120379510372445</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>11.619546292336185</v>
+        <v>6.4300818418624335</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.826424965629144</v>
+        <v>-5.5019864633403897</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4047910022870855</v>
+        <v>8.9261445456477002</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.361418450348566</v>
+        <v>9.9480585989189123</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7545756233790453</v>
+        <v>-4.2965149247263401</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1755983410321189</v>
+        <v>2.6814339233839419</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>11.778281453328841</v>
+        <v>-0.85143672878231769</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.223868847347795</v>
+        <v>0.60110956371498503</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>10.856467594864675</v>
+        <v>4.5284444299375366</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.171411131044449</v>
+        <v>-3.2045172706936658</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5151777072379176</v>
+        <v>6.5387621365120978</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4754702487125124</v>
+        <v>-1.3025010854732741</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0466479320683284</v>
+        <v>10.820897254590871</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4468265410962093</v>
+        <v>9.4700855496787248</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5833017172970827</v>
+        <v>5.5681699432695204</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4265695444040425</v>
+        <v>0.78832292737636322</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.434831793807554</v>
+        <v>9.0706153083447099</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.4786832959937284</v>
+        <v>4.7179707165706599</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7767229171634522</v>
+        <v>0.8979479348800492</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4092987612001995</v>
+        <v>-0.51550138520211775</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7820604796548363</v>
+        <v>6.3668951313472988</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.4114787678175293</v>
+        <v>-1.8363475087482151</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9357076636390449</v>
+        <v>0.59238229672609233</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1486152507998</v>
+        <v>-0.72294655300202226</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6315561948012913</v>
+        <v>1.3142753329611132</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7056160586391638</v>
+        <v>3.1187410182214155</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8907960301369542</v>
+        <v>-4.8517614570461731</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3611062357480233</v>
+        <v>1.2667602612218705</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9013366602701325</v>
+        <v>6.3824064072002322</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2797043001572632</v>
+        <v>6.1303630034502099</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1033923735379183E-2</v>
+        <v>10.855585912009463</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4033374618675687</v>
+        <v>0.43606599543213953</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6423744852614597</v>
+        <v>11.681647849024948</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>12.208512574372655</v>
+        <v>7.7840654956307755</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.102797668606641</v>
+        <v>7.6440880809212821</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.6963191262717423</v>
+        <v>-0.60934630892750619</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7213793098366885</v>
+        <v>10.171163293681477</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7952547642360663</v>
+        <v>4.1745500399376567</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.33458767282864166</v>
+        <v>-0.10959169864202956</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6219041564193546</v>
+        <v>-3.475989318522839</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7039151351010187</v>
+        <v>-3.7430983985073634</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.86965336862267417</v>
+        <v>5.1814016797825708</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6887273246398919</v>
+        <v>9.3515001736530685</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2885461957480562</v>
+        <v>3.1611839424167449</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9545247269720143</v>
+        <v>-3.5565407952018617</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3288593635122581</v>
+        <v>12.533523348923282</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.68619845601666718</v>
+        <v>-4.2534768399734091</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.9299699498920964</v>
+        <v>7.2850555844752076</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>10.614068572742571</v>
+        <v>-5.7436047413594409</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4744699052313379</v>
+        <v>3.0405553941118768</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1568560633155176</v>
+        <v>8.5306900028804797</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13899119021039041</v>
+        <v>8.2658612507308096</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>12.815539471315144</v>
+        <v>3.7256610470645715</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2921975782894055</v>
+        <v>10.83952169089757</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.5013500954597401</v>
+        <v>-5.9023750516582041</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7839516158643285</v>
+        <v>11.424280815397939</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4013453192358627</v>
+        <v>-5.1416078211273852</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>11.81645483576062</v>
+        <v>10.6525241952044</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7362011380327278</v>
+        <v>7.336405887051658</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.731861311280678</v>
+        <v>2.8694083712350569</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.339621986238662</v>
+        <v>-4.0534381152368848</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5938298105592903</v>
+        <v>11.108794956364637</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3746255855015121</v>
+        <v>1.6339601245408844</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1058275200596981</v>
+        <v>-2.4920788929407172</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0389966634933057</v>
+        <v>-5.768649765395895</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.230429367282758</v>
+        <v>1.8921885026331804</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.234782735310322</v>
+        <v>12.605250121428615</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1119172445908276</v>
+        <v>4.0938422517370476</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0801944673309567</v>
+        <v>-2.9499757507700135</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11652787210026538</v>
+        <v>11.84608759570159</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.3176478793640012</v>
+        <v>1.8620840607592584</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>12.116816902600103</v>
+        <v>5.4443058068340946</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6161321379647946</v>
+        <v>-6.0707873598349309</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4580634417390197</v>
+        <v>1.1604593206026657</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4397533705373782</v>
+        <v>12.118490494098168</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.95404675362547</v>
+        <v>-3.6787571343457275</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9061244739003627</v>
+        <v>1.7830281472685883</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.02450884441496</v>
+        <v>-1.1170558026605342</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27766851258307135</v>
+        <v>10.38374520946055</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.345547365871401</v>
+        <v>-1.0493288110256964</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9265222183712822</v>
+        <v>12.057495472139603</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.8265339962162113</v>
+        <v>10.383982412820117</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4137161667435194</v>
+        <v>5.6350383297430557</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.1642290391358401</v>
+        <v>-6.4229453912525285</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>11.294931326525003</v>
+        <v>12.389731839861287</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1359454259484334</v>
+        <v>1.6788779816552992</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.36815314328231</v>
+        <v>0.61411468358165244</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2832892146773851</v>
+        <v>10.988039444824434</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9130236050130591</v>
+        <v>-0.7033306969267521</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0296933085111331</v>
+        <v>1.6528924694178428</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>12.631900464637305</v>
+        <v>-2.2562730617201119</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6100748311017536</v>
+        <v>9.7008152102775114</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8828591159305841</v>
+        <v>-4.0579377876824907</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8825047050858732</v>
+        <v>0.30253648758413654</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9680223655290341</v>
+        <v>-2.9354752774959536</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9168792438942539</v>
+        <v>-3.2766192840507706</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>11.343623713337173</v>
+        <v>3.9454052393894159</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93548342542016449</v>
+        <v>5.4438340017629976</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>11.788927320753398</v>
+        <v>-7.0331921371010075E-2</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28990156788714039</v>
+        <v>-0.71162215460579858</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>11.696495605110229</v>
+        <v>-6.6646860532985901</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1969414974848132</v>
+        <v>8.0383873076374179</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.84519356524564415</v>
+        <v>-1.5131215374628226</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2372178297540093</v>
+        <v>1.7155432936383264</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5205174751252386</v>
+        <v>3.0040416180287579</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8181564281849685</v>
+        <v>12.850660172966741</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.659369996809847</v>
+        <v>7.4914618813831773</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0232799526894789</v>
+        <v>4.0983025842412548</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3899621729679872</v>
+        <v>-4.0178676614622564</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0351234132681348</v>
+        <v>4.2500555652938043</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>12.843894580572798</v>
+        <v>-1.0211446453512467</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7845256422487203</v>
+        <v>-2.921108534929445</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>10.510722568029333</v>
+        <v>-2.6525460880316603</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6817851772352963</v>
+        <v>7.1136681444365024</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7258662373655458</v>
+        <v>3.9766950045102831</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75399128127000736</v>
+        <v>0.23732000702451028</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.43319769724425239</v>
+        <v>10.296588378667838</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3907394507044799</v>
+        <v>-5.8677494198500151</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2502822056910965</v>
+        <v>4.3609251720556799</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8765914995376214</v>
+        <v>-6.4639234133703365</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3691103894075436</v>
+        <v>12.409441444098061</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6674753880782305</v>
+        <v>11.066470101561876</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5706417555807839</v>
+        <v>11.681254918326268</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>12.63455614949909</v>
+        <v>-1.6159557927501549</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5692368430933108</v>
+        <v>6.4501200711564479</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0842871867726611</v>
+        <v>2.3003293443440107</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7688541344768929</v>
+        <v>5.68375499244903</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8844680958722906</v>
+        <v>8.8728317884814594</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3537199168594753</v>
+        <v>11.221395647026533</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2686380893813123</v>
+        <v>12.472623652720024</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>10.801203247328701</v>
+        <v>-6.4493910219912003</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1053099503868378</v>
+        <v>8.2045694923187966</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5085357201480445</v>
+        <v>-6.7894050814992495</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.6115837981992631</v>
+        <v>9.3477976886456347</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7626366473582635</v>
+        <v>6.5426870674141355</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.566845367653098</v>
+        <v>4.9557602339245683</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6168310265901589</v>
+        <v>-5.4469049885971632</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3647519109389332</v>
+        <v>3.651565539671445</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7424402965731502</v>
+        <v>3.9921978191939989</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3899928162493991</v>
+        <v>6.5371575608900621</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9203825639999916</v>
+        <v>0.58529090916401039</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.8748686987190357</v>
+        <v>-2.6615678804081249</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3691882803239643</v>
+        <v>9.7718270656496813</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3128746487126612</v>
+        <v>7.6310202166030816</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>5.549866123139795</v>
+        <v>10.480220082309724</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6798342549139713</v>
+        <v>-0.30030049318115815</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.959074300399287</v>
+        <v>-6.6977938863206203</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1213072535777657</v>
+        <v>8.508239142329149</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>12.135524260502098</v>
+        <v>4.0892051758675159</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.292516861267007</v>
+        <v>8.6600264411044225</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>10.45412031792744</v>
+        <v>-4.6764855455537351</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>10.361140326490819</v>
+        <v>5.2105201220870292</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6223336347017696</v>
+        <v>12.282019976116995</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2431886895193518</v>
+        <v>-6.0866818762440627</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>10.848846292385304</v>
+        <v>8.2346434624464138</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>10.636025309268653</v>
+        <v>-5.6472082108759825</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.96315500471397009</v>
+        <v>-6.918193906457395</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>11.671236240898629</v>
+        <v>7.2964674743534292</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.445660042507301</v>
+        <v>1.3810877656405154</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5601114727849659</v>
+        <v>-3.4952829546233271</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8405206907720739E-2</v>
+        <v>8.126551679528772</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7958905819086901</v>
+        <v>4.7300984555955132</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4810973400729956</v>
+        <v>7.5946260885841497</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0844564650653439</v>
+        <v>-4.0577857374300628</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6729638384857761</v>
+        <v>-4.3590033065032578</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9875035258415661</v>
+        <v>-6.0913408511191651</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2805934052703805</v>
+        <v>11.995587205416435</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.2929884051563381</v>
+        <v>-5.424206581960525</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6379582072120957</v>
+        <v>6.300937901332631</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34598222605412587</v>
+        <v>0.64237277673017701</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3808781152037337</v>
+        <v>2.0899160256969651</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.1367925884407271</v>
+        <v>8.5749242517892199</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3909305134305452</v>
+        <v>-5.6372427253380675</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>11.847608168650869</v>
+        <v>4.6870308905576792</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2751267955808796</v>
+        <v>4.5431432716875992</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.84720741195413041</v>
+        <v>-2.7295015195624828</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.0797880139273381</v>
+        <v>4.4091660086401596</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8443797131730975</v>
+        <v>6.5484169463985982</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2589634388978794</v>
+        <v>8.8506310818713008</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>10.70991622051276</v>
+        <v>0.57679284230988515</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58333536126334806</v>
+        <v>4.6293307151423733</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5024197850584038</v>
+        <v>-3.9147049521792447</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9334890357837686E-2</v>
+        <v>-1.5593599503439393</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7136693425048399</v>
+        <v>-3.4104426140958148</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.9095700888791018</v>
+        <v>-0.39288265541983058</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4712153858775014</v>
+        <v>-2.1428787942289116</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5860370452653996</v>
+        <v>5.4855116060379387</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3262881261015202</v>
+        <v>-4.1131997712176069</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1130708528476596</v>
+        <v>-5.7763483768280537</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7586813593796506</v>
+        <v>-0.6231009741953919</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="1"/>
-        <v>10.807211689431814</v>
+        <v>3.6734731460752492</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0226908757182294</v>
+        <v>-1.951590070474408</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9887229821753394E-3</v>
+        <v>-3.1976239821218204</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.8406186332787771</v>
+        <v>1.6300863556598593</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3971698395234422</v>
+        <v>9.3868864712418585</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70172957718459283</v>
+        <v>-4.7587533567508427</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1417312088756368</v>
+        <v>3.4894900040631818</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>11.298948699365251</v>
+        <v>-4.010974757377177</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97896083645147236</v>
+        <v>12.883463287641966</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3977850636632887</v>
+        <v>-5.1395914184321345</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8985478723248157</v>
+        <v>1.8158356061155807</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>11.143829668106854</v>
+        <v>-4.2249735478503707</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7337536838518837</v>
+        <v>3.7222284244836192</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2575114026221028</v>
+        <v>-3.3041658058119543</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.5964947028995997</v>
+        <v>5.7838396064851896</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1959059683900932</v>
+        <v>3.0512608721538399</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3513587068600454</v>
+        <v>1.4526408521773782</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>12.755584323195766</v>
+        <v>0.47684490682513925</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9559625458010963</v>
+        <v>-5.7108406419758673</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7857639169923711</v>
+        <v>4.9459310005496029</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8143644028472252</v>
+        <v>3.2306428488684613</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.4308608976896031</v>
+        <v>-3.2664998498035085</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>12.217593220960129</v>
+        <v>-1.2874591947418743</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7794341563459355</v>
+        <v>-3.2476011602846282</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5511945150023774</v>
+        <v>-3.6514721887893735</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0281477743325933</v>
+        <v>5.0665382408846416</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>10.337065923119177</v>
+        <v>-1.7341777132417739</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6244361460298222</v>
+        <v>3.9768839329903756</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5835575693808579</v>
+        <v>-3.4912623836319749</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.7739379886380995</v>
+        <v>7.4392796275418878</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.4759375208318293</v>
+        <v>-6.289636345117362</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.13090829868292619</v>
+        <v>8.7156517279444756</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0195936729578445</v>
+        <v>2.2578618450420471</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4701850441470832</v>
+        <v>-4.1448303244101936</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.3211260971433321</v>
+        <v>-1.401578641569448</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.8736908605758931</v>
+        <v>10.883117468314396</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.6658344388002506</v>
+        <v>6.9563242633433653</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2464163560400774</v>
+        <v>12.127769480581755</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4971819924407672</v>
+        <v>-6.2380744213070347</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.53887777044531671</v>
+        <v>2.5897366062338136</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2324242381227783</v>
+        <v>-6.9864944042141834</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>10.855893601565207</v>
+        <v>0.18113339970369857</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>9.933070919896835</v>
+        <v>-6.3704621007711175</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9864704240904034</v>
+        <v>9.8214647219434745</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9062287901789112</v>
+        <v>-0.47292035359873807</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>11.223193860051836</v>
+        <v>0.17339014805885178</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.3444317565972632</v>
+        <v>0.32236472839294983</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4269042225807063</v>
+        <v>-2.5227879547420766</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2283176931837074</v>
+        <v>-1.2873668359947441</v>
       </c>
     </row>
   </sheetData>
